--- a/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000094456707682</v>
+        <v>1.007913337818767</v>
       </c>
       <c r="D2">
-        <v>1.018906442021459</v>
+        <v>1.030176754563198</v>
       </c>
       <c r="E2">
-        <v>1.005958321860631</v>
+        <v>1.012649361556275</v>
       </c>
       <c r="F2">
-        <v>1.011891674335729</v>
+        <v>1.034319506313218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045801931450117</v>
+        <v>1.053133162398389</v>
       </c>
       <c r="J2">
-        <v>1.02227234295884</v>
+        <v>1.029859911262714</v>
       </c>
       <c r="K2">
-        <v>1.030108516956661</v>
+        <v>1.041231097589553</v>
       </c>
       <c r="L2">
-        <v>1.01733526725728</v>
+        <v>1.023935239230279</v>
       </c>
       <c r="M2">
-        <v>1.023187788383374</v>
+        <v>1.045320557477911</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0088271772839</v>
+        <v>1.015046587262116</v>
       </c>
       <c r="D3">
-        <v>1.025762469829355</v>
+        <v>1.035822681121019</v>
       </c>
       <c r="E3">
-        <v>1.01362459018621</v>
+        <v>1.018598146480852</v>
       </c>
       <c r="F3">
-        <v>1.020378154819529</v>
+        <v>1.040511462568014</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049277977463294</v>
+        <v>1.055658961249164</v>
       </c>
       <c r="J3">
-        <v>1.029080063240971</v>
+        <v>1.035135305371747</v>
       </c>
       <c r="K3">
-        <v>1.036075994169441</v>
+        <v>1.046016837214942</v>
       </c>
       <c r="L3">
-        <v>1.024086060055468</v>
+        <v>1.028998464849962</v>
       </c>
       <c r="M3">
-        <v>1.030756767427193</v>
+        <v>1.050650959344483</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014274251018694</v>
+        <v>1.01953037809012</v>
       </c>
       <c r="D4">
-        <v>1.030041413535218</v>
+        <v>1.03937342077444</v>
       </c>
       <c r="E4">
-        <v>1.018407194757877</v>
+        <v>1.022342960544032</v>
       </c>
       <c r="F4">
-        <v>1.02567901751177</v>
+        <v>1.0444083616694</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051431120445359</v>
+        <v>1.057232106248227</v>
       </c>
       <c r="J4">
-        <v>1.033319736234401</v>
+        <v>1.038447353654259</v>
       </c>
       <c r="K4">
-        <v>1.039790296638613</v>
+        <v>1.049018778559785</v>
       </c>
       <c r="L4">
-        <v>1.028288423445873</v>
+        <v>1.032179001785271</v>
       </c>
       <c r="M4">
-        <v>1.035477091512872</v>
+        <v>1.053998806724905</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016518711024953</v>
+        <v>1.021385469983486</v>
       </c>
       <c r="D5">
-        <v>1.031805006847761</v>
+        <v>1.040842818327123</v>
       </c>
       <c r="E5">
-        <v>1.020377948889859</v>
+        <v>1.023893559221539</v>
       </c>
       <c r="F5">
-        <v>1.027864922088859</v>
+        <v>1.046021682804346</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052314641351722</v>
+        <v>1.057879418938754</v>
       </c>
       <c r="J5">
-        <v>1.035065020861682</v>
+        <v>1.039816647408166</v>
       </c>
       <c r="K5">
-        <v>1.041318779970698</v>
+        <v>1.050259197236428</v>
       </c>
       <c r="L5">
-        <v>1.030017902379408</v>
+        <v>1.033494323598273</v>
       </c>
       <c r="M5">
-        <v>1.037421813228891</v>
+        <v>1.055383180401884</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016892986384637</v>
+        <v>1.021695241556568</v>
       </c>
       <c r="D6">
-        <v>1.032099118616419</v>
+        <v>1.041088202028304</v>
       </c>
       <c r="E6">
-        <v>1.020706585120214</v>
+        <v>1.024152556033426</v>
       </c>
       <c r="F6">
-        <v>1.028229530292142</v>
+        <v>1.046291141068968</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052461754746203</v>
+        <v>1.057987299490094</v>
       </c>
       <c r="J6">
-        <v>1.035355956208902</v>
+        <v>1.040045237040837</v>
       </c>
       <c r="K6">
-        <v>1.041573543027081</v>
+        <v>1.050466232527089</v>
       </c>
       <c r="L6">
-        <v>1.030306176613967</v>
+        <v>1.033713926389361</v>
       </c>
       <c r="M6">
-        <v>1.037746087011559</v>
+        <v>1.055614303258753</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014304416304177</v>
+        <v>1.019555281253868</v>
       </c>
       <c r="D7">
-        <v>1.030065114371183</v>
+        <v>1.039393145079373</v>
       </c>
       <c r="E7">
-        <v>1.018433681230772</v>
+        <v>1.022363771302713</v>
       </c>
       <c r="F7">
-        <v>1.025708389219512</v>
+        <v>1.044430015240921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051443009530962</v>
+        <v>1.057240810048029</v>
       </c>
       <c r="J7">
-        <v>1.033343199352055</v>
+        <v>1.038465739434274</v>
       </c>
       <c r="K7">
-        <v>1.039810847276813</v>
+        <v>1.049035436583502</v>
       </c>
       <c r="L7">
-        <v>1.028311675850117</v>
+        <v>1.032196661305675</v>
       </c>
       <c r="M7">
-        <v>1.035503229562633</v>
+        <v>1.054017393909512</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003089940108725</v>
+        <v>1.010352420177145</v>
       </c>
       <c r="D8">
-        <v>1.021257577398191</v>
+        <v>1.032106819959987</v>
       </c>
       <c r="E8">
-        <v>1.008587779024946</v>
+        <v>1.01468221316646</v>
       </c>
       <c r="F8">
-        <v>1.014801075190289</v>
+        <v>1.036435657312408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046997428638584</v>
+        <v>1.053999830731999</v>
       </c>
       <c r="J8">
-        <v>1.024608887894473</v>
+        <v>1.031664524161826</v>
       </c>
       <c r="K8">
-        <v>1.03215709888675</v>
+        <v>1.042868761467588</v>
       </c>
       <c r="L8">
-        <v>1.019652666483854</v>
+        <v>1.025666910485997</v>
       </c>
       <c r="M8">
-        <v>1.025784220527136</v>
+        <v>1.047143705735609</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9816026028642972</v>
+        <v>0.9930422141837107</v>
       </c>
       <c r="D9">
-        <v>1.004409428453395</v>
+        <v>1.018421770304128</v>
       </c>
       <c r="E9">
-        <v>0.9897335740890438</v>
+        <v>1.000282930946215</v>
       </c>
       <c r="F9">
-        <v>0.9939675375299405</v>
+        <v>1.021442615615548</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038358888137291</v>
+        <v>1.047789413053444</v>
       </c>
       <c r="J9">
-        <v>1.007822176652143</v>
+        <v>1.018843085108398</v>
       </c>
       <c r="K9">
-        <v>1.017431368572651</v>
+        <v>1.031222873946407</v>
       </c>
       <c r="L9">
-        <v>1.002995442347858</v>
+        <v>1.013371419460148</v>
       </c>
       <c r="M9">
-        <v>1.0071592513768</v>
+        <v>1.034197123615189</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9658435553025001</v>
+        <v>0.9806361821042748</v>
       </c>
       <c r="D10">
-        <v>0.9920832854877395</v>
+        <v>1.008635920918256</v>
       </c>
       <c r="E10">
-        <v>0.9759212680186158</v>
+        <v>0.9900038499941448</v>
       </c>
       <c r="F10">
-        <v>0.9787402209877555</v>
+        <v>1.010735578635815</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0319459195176</v>
+        <v>1.043265629025551</v>
       </c>
       <c r="J10">
-        <v>0.9954810954777104</v>
+        <v>1.009639706305463</v>
       </c>
       <c r="K10">
-        <v>1.006596965120645</v>
+        <v>1.022850982330845</v>
       </c>
       <c r="L10">
-        <v>0.990739320194005</v>
+        <v>1.004555964396329</v>
       </c>
       <c r="M10">
-        <v>0.9935042379861593</v>
+        <v>1.024913667021283</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586033279891992</v>
+        <v>0.9750248348264754</v>
       </c>
       <c r="D11">
-        <v>0.9864306630025585</v>
+        <v>1.004217059523772</v>
       </c>
       <c r="E11">
-        <v>0.9695813908483923</v>
+        <v>0.9853660253441473</v>
       </c>
       <c r="F11">
-        <v>0.9717587702979268</v>
+        <v>1.005903931262855</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028982621668355</v>
+        <v>1.041203435314538</v>
       </c>
       <c r="J11">
-        <v>0.989805753626865</v>
+        <v>1.005474827916134</v>
       </c>
       <c r="K11">
-        <v>1.001613095741927</v>
+        <v>1.019059884072001</v>
       </c>
       <c r="L11">
-        <v>0.9851006978489757</v>
+        <v>1.000569296361479</v>
       </c>
       <c r="M11">
-        <v>0.9872336778349226</v>
+        <v>1.020715360390548</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9558434650403164</v>
+        <v>0.9729012170707529</v>
       </c>
       <c r="D12">
-        <v>0.9842778547680625</v>
+        <v>1.002546046132019</v>
       </c>
       <c r="E12">
-        <v>0.9671658530985383</v>
+        <v>0.9836127375166379</v>
       </c>
       <c r="F12">
-        <v>0.9690999345308599</v>
+        <v>1.004077283282985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027850654341222</v>
+        <v>1.040420704575475</v>
       </c>
       <c r="J12">
-        <v>0.987641745619977</v>
+        <v>1.003898434100054</v>
       </c>
       <c r="K12">
-        <v>0.9997125948345895</v>
+        <v>1.017624629936873</v>
       </c>
       <c r="L12">
-        <v>0.9829503486032725</v>
+        <v>0.9990607730563072</v>
       </c>
       <c r="M12">
-        <v>0.9848440808458714</v>
+        <v>1.019126783661084</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9564388000134755</v>
+        <v>0.9733585775722184</v>
       </c>
       <c r="D13">
-        <v>0.98474215029054</v>
+        <v>1.002905867406777</v>
       </c>
       <c r="E13">
-        <v>0.9676868581933771</v>
+        <v>0.983990251860265</v>
       </c>
       <c r="F13">
-        <v>0.9696733654794284</v>
+        <v>1.004470596927203</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028094938832822</v>
+        <v>1.04058938158684</v>
       </c>
       <c r="J13">
-        <v>0.9881085743038008</v>
+        <v>1.004237946334514</v>
       </c>
       <c r="K13">
-        <v>1.000122584453057</v>
+        <v>1.017933758959698</v>
       </c>
       <c r="L13">
-        <v>0.9834142459844345</v>
+        <v>0.9993856486233289</v>
       </c>
       <c r="M13">
-        <v>0.9853595126319085</v>
+        <v>1.019468897754357</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9583766866877318</v>
+        <v>0.9748501187234366</v>
       </c>
       <c r="D14">
-        <v>0.9862538332081515</v>
+        <v>1.004079552726131</v>
       </c>
       <c r="E14">
-        <v>0.969383001464618</v>
+        <v>0.9852217377514693</v>
       </c>
       <c r="F14">
-        <v>0.9715403758160135</v>
+        <v>1.005753608092917</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028889711670166</v>
+        <v>1.041139083576513</v>
       </c>
       <c r="J14">
-        <v>0.9896280564541596</v>
+        <v>1.005345136640196</v>
       </c>
       <c r="K14">
-        <v>1.001457039098952</v>
+        <v>1.018941811024862</v>
       </c>
       <c r="L14">
-        <v>0.9849241291138714</v>
+        <v>1.000445180249808</v>
       </c>
       <c r="M14">
-        <v>0.987037428713897</v>
+        <v>1.020584657002986</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9595610752394914</v>
+        <v>0.9757637899647265</v>
       </c>
       <c r="D15">
-        <v>0.9871779937415127</v>
+        <v>1.004798693705369</v>
       </c>
       <c r="E15">
-        <v>0.9704197974245952</v>
+        <v>0.9859763625432171</v>
       </c>
       <c r="F15">
-        <v>0.9726817658973691</v>
+        <v>1.006539795578354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02937514689085</v>
+        <v>1.041475516124909</v>
       </c>
       <c r="J15">
-        <v>0.9905566458677563</v>
+        <v>1.006023345183333</v>
       </c>
       <c r="K15">
-        <v>1.002272536171276</v>
+        <v>1.019559249751243</v>
       </c>
       <c r="L15">
-        <v>0.9858468078697176</v>
+        <v>1.001094251109806</v>
       </c>
       <c r="M15">
-        <v>0.9880630202561546</v>
+        <v>1.021268177669353</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9663146445752988</v>
+        <v>0.9810032682263428</v>
       </c>
       <c r="D16">
-        <v>0.9924513161201914</v>
+        <v>1.008925165122374</v>
       </c>
       <c r="E16">
-        <v>0.9763339163562307</v>
+        <v>0.990307501624925</v>
       </c>
       <c r="F16">
-        <v>0.9791947873327345</v>
+        <v>1.011051907076318</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032138390838327</v>
+        <v>1.043400212230354</v>
       </c>
       <c r="J16">
-        <v>0.9958502657052652</v>
+        <v>1.009912132925723</v>
       </c>
       <c r="K16">
-        <v>1.006921132259353</v>
+        <v>1.023098911410926</v>
       </c>
       <c r="L16">
-        <v>0.9911060543888034</v>
+        <v>1.004816790774199</v>
       </c>
       <c r="M16">
-        <v>0.9939123124657661</v>
+        <v>1.025188342218219</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9704343030230931</v>
+        <v>0.9842235173049815</v>
       </c>
       <c r="D17">
-        <v>0.9956709288827512</v>
+        <v>1.011463401325935</v>
       </c>
       <c r="E17">
-        <v>0.9799432004655938</v>
+        <v>0.9929725893549028</v>
       </c>
       <c r="F17">
-        <v>0.9831715952616641</v>
+        <v>1.01382817621303</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033819661782805</v>
+        <v>1.044579039871943</v>
       </c>
       <c r="J17">
-        <v>0.9990780534478201</v>
+        <v>1.01230175983996</v>
       </c>
       <c r="K17">
-        <v>1.009755290562254</v>
+        <v>1.025273377296559</v>
       </c>
       <c r="L17">
-        <v>0.9943122809541042</v>
+        <v>1.007104966787152</v>
       </c>
       <c r="M17">
-        <v>0.9974812645588069</v>
+        <v>1.027598015083729</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9727976544684985</v>
+        <v>0.9860789768034423</v>
       </c>
       <c r="D18">
-        <v>0.9975188919860513</v>
+        <v>1.01292657241719</v>
       </c>
       <c r="E18">
-        <v>0.9820142996298939</v>
+        <v>0.9945092404272811</v>
       </c>
       <c r="F18">
-        <v>0.985454329724706</v>
+        <v>1.01542886227853</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034782577764631</v>
+        <v>1.045256746028164</v>
       </c>
       <c r="J18">
-        <v>1.000929241496674</v>
+        <v>1.013678419542836</v>
       </c>
       <c r="K18">
-        <v>1.011380590461749</v>
+        <v>1.026525845470539</v>
       </c>
       <c r="L18">
-        <v>0.9961508837530441</v>
+        <v>1.008423429428654</v>
       </c>
       <c r="M18">
-        <v>0.9995289545548649</v>
+        <v>1.028986483930368</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9735970023157033</v>
+        <v>0.986707858230962</v>
       </c>
       <c r="D19">
-        <v>0.9981440739033393</v>
+        <v>1.013422602550784</v>
       </c>
       <c r="E19">
-        <v>0.9827148850564081</v>
+        <v>0.995030242498426</v>
       </c>
       <c r="F19">
-        <v>0.9862266312927501</v>
+        <v>1.015971562821292</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035107987786948</v>
+        <v>1.045486184209163</v>
       </c>
       <c r="J19">
-        <v>1.001555269945213</v>
+        <v>1.014144979925919</v>
       </c>
       <c r="K19">
-        <v>1.01193020423006</v>
+        <v>1.026950274955078</v>
       </c>
       <c r="L19">
-        <v>0.9967726186565455</v>
+        <v>1.008870308041641</v>
       </c>
       <c r="M19">
-        <v>1.000221577332185</v>
+        <v>1.029457089426019</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9699964490754041</v>
+        <v>0.9838804020873341</v>
       </c>
       <c r="D20">
-        <v>0.9953286347863513</v>
+        <v>1.011192882346268</v>
       </c>
       <c r="E20">
-        <v>0.9795595337125262</v>
+        <v>0.9926885140949563</v>
       </c>
       <c r="F20">
-        <v>0.9827487839194243</v>
+        <v>1.013532257159066</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033641134045754</v>
+        <v>1.044453593457422</v>
       </c>
       <c r="J20">
-        <v>0.9987350439987663</v>
+        <v>1.012047167558147</v>
       </c>
       <c r="K20">
-        <v>1.009454124885982</v>
+        <v>1.025041732824115</v>
       </c>
       <c r="L20">
-        <v>0.9939715855546286</v>
+        <v>1.006861157180971</v>
       </c>
       <c r="M20">
-        <v>0.9971019129820169</v>
+        <v>1.027341259680369</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9578080453091458</v>
+        <v>0.974412011221262</v>
       </c>
       <c r="D21">
-        <v>0.9858101999533558</v>
+        <v>1.003734770768832</v>
       </c>
       <c r="E21">
-        <v>0.9688852628638583</v>
+        <v>0.984859962109044</v>
       </c>
       <c r="F21">
-        <v>0.9709924647084021</v>
+        <v>1.005376697986496</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028656563111708</v>
+        <v>1.040977682627835</v>
       </c>
       <c r="J21">
-        <v>0.989182205621821</v>
+        <v>1.00501992800739</v>
       </c>
       <c r="K21">
-        <v>1.001065483196582</v>
+        <v>1.018645730554303</v>
       </c>
       <c r="L21">
-        <v>0.9844811041346805</v>
+        <v>1.000133958471124</v>
       </c>
       <c r="M21">
-        <v>0.9865450521392038</v>
+        <v>1.020256918160686</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9497316112382512</v>
+        <v>0.9682294230499554</v>
       </c>
       <c r="D22">
-        <v>0.9795142429973651</v>
+        <v>0.9988726017003416</v>
       </c>
       <c r="E22">
-        <v>0.9618189023434174</v>
+        <v>0.9797593552087525</v>
       </c>
       <c r="F22">
-        <v>0.9632164915759758</v>
+        <v>1.000062536586349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025339589472293</v>
+        <v>1.038694671821511</v>
       </c>
       <c r="J22">
-        <v>0.9828484352565078</v>
+        <v>1.000430284706091</v>
       </c>
       <c r="K22">
-        <v>0.9955027513030172</v>
+        <v>1.014466425704142</v>
       </c>
       <c r="L22">
-        <v>0.9781866743072434</v>
+        <v>0.9957427371884353</v>
       </c>
       <c r="M22">
-        <v>0.9795536354814661</v>
+        <v>1.015632754716551</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9540553005337971</v>
+        <v>0.9715299079795133</v>
       </c>
       <c r="D23">
-        <v>0.9828835877254076</v>
+        <v>1.001467398412574</v>
       </c>
       <c r="E23">
-        <v>0.9656011330289787</v>
+        <v>0.9824811250040294</v>
       </c>
       <c r="F23">
-        <v>0.9673779294969076</v>
+        <v>1.002898300933174</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027116574770847</v>
+        <v>1.039914632246884</v>
       </c>
       <c r="J23">
-        <v>0.9862394841550621</v>
+        <v>1.002880452867323</v>
       </c>
       <c r="K23">
-        <v>0.9984810496698298</v>
+        <v>1.016697702867049</v>
       </c>
       <c r="L23">
-        <v>0.981556843043865</v>
+        <v>0.9980867407922751</v>
       </c>
       <c r="M23">
-        <v>0.9832960268661557</v>
+        <v>1.018101073885965</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9701944181448529</v>
+        <v>0.9840355114735374</v>
       </c>
       <c r="D24">
-        <v>0.9954833949843768</v>
+        <v>1.011315171635814</v>
       </c>
       <c r="E24">
-        <v>0.9797330012014094</v>
+        <v>0.992816930451479</v>
       </c>
       <c r="F24">
-        <v>0.9829399475679619</v>
+        <v>1.013666027729234</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033721857631247</v>
+        <v>1.044510307747266</v>
       </c>
       <c r="J24">
-        <v>0.9988901321799496</v>
+        <v>1.012162259734301</v>
       </c>
       <c r="K24">
-        <v>1.009590294262852</v>
+        <v>1.025146451847612</v>
       </c>
       <c r="L24">
-        <v>0.9941256281461912</v>
+        <v>1.006971374119475</v>
       </c>
       <c r="M24">
-        <v>0.9972734302715652</v>
+        <v>1.027457328920968</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9873878083073065</v>
+        <v>0.9976594880503975</v>
       </c>
       <c r="D25">
-        <v>1.008941363671352</v>
+        <v>1.02206895342575</v>
       </c>
       <c r="E25">
-        <v>0.9948078528492794</v>
+        <v>1.004117359980172</v>
       </c>
       <c r="F25">
-        <v>0.9995685118504198</v>
+        <v>1.025435928831119</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040698133777769</v>
+        <v>1.049458738690413</v>
       </c>
       <c r="J25">
-        <v>1.012347207706951</v>
+        <v>1.022265877309903</v>
       </c>
       <c r="K25">
-        <v>1.021402444249243</v>
+        <v>1.034334071544575</v>
       </c>
       <c r="L25">
-        <v>1.007487308514154</v>
+        <v>1.016652093723394</v>
       </c>
       <c r="M25">
-        <v>1.01217352981154</v>
+        <v>1.037651811898743</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007913337818767</v>
+        <v>1.032733665469476</v>
       </c>
       <c r="D2">
-        <v>1.030176754563198</v>
+        <v>1.044296741461364</v>
       </c>
       <c r="E2">
-        <v>1.012649361556275</v>
+        <v>1.042606639713394</v>
       </c>
       <c r="F2">
-        <v>1.034319506313218</v>
+        <v>1.049492843657448</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053133162398389</v>
+        <v>1.056916598473933</v>
       </c>
       <c r="J2">
-        <v>1.029859911262714</v>
+        <v>1.053977532660224</v>
       </c>
       <c r="K2">
-        <v>1.041231097589553</v>
+        <v>1.055171610237183</v>
       </c>
       <c r="L2">
-        <v>1.023935239230279</v>
+        <v>1.053502671382964</v>
       </c>
       <c r="M2">
-        <v>1.045320557477911</v>
+        <v>1.060303180001459</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015046587262116</v>
+        <v>1.03877271191751</v>
       </c>
       <c r="D3">
-        <v>1.035822681121019</v>
+        <v>1.048971147393649</v>
       </c>
       <c r="E3">
-        <v>1.018598146480852</v>
+        <v>1.047810480381561</v>
       </c>
       <c r="F3">
-        <v>1.040511462568014</v>
+        <v>1.055124204856775</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055658961249164</v>
+        <v>1.059159071985734</v>
       </c>
       <c r="J3">
-        <v>1.035135305371747</v>
+        <v>1.058259439999237</v>
       </c>
       <c r="K3">
-        <v>1.046016837214942</v>
+        <v>1.059013550412266</v>
       </c>
       <c r="L3">
-        <v>1.028998464849962</v>
+        <v>1.057866090172926</v>
       </c>
       <c r="M3">
-        <v>1.050650959344483</v>
+        <v>1.06509719223472</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01953037809012</v>
+        <v>1.042584511048642</v>
       </c>
       <c r="D4">
-        <v>1.03937342077444</v>
+        <v>1.051923934344107</v>
       </c>
       <c r="E4">
-        <v>1.022342960544032</v>
+        <v>1.051100498556016</v>
       </c>
       <c r="F4">
-        <v>1.0444083616694</v>
+        <v>1.058685471003283</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057232106248227</v>
+        <v>1.060564857985381</v>
       </c>
       <c r="J4">
-        <v>1.038447353654259</v>
+        <v>1.060958251735708</v>
       </c>
       <c r="K4">
-        <v>1.049018778559785</v>
+        <v>1.061433609693704</v>
       </c>
       <c r="L4">
-        <v>1.032179001785271</v>
+        <v>1.060618954355297</v>
       </c>
       <c r="M4">
-        <v>1.053998806724905</v>
+        <v>1.068123678256539</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021385469983486</v>
+        <v>1.044165077305061</v>
       </c>
       <c r="D5">
-        <v>1.040842818327123</v>
+        <v>1.053148804156551</v>
       </c>
       <c r="E5">
-        <v>1.023893559221539</v>
+        <v>1.052465944652762</v>
       </c>
       <c r="F5">
-        <v>1.046021682804346</v>
+        <v>1.060163731176158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057879418938754</v>
+        <v>1.061145410584902</v>
       </c>
       <c r="J5">
-        <v>1.039816647408166</v>
+        <v>1.062076337199202</v>
       </c>
       <c r="K5">
-        <v>1.050259197236428</v>
+        <v>1.062435851853033</v>
       </c>
       <c r="L5">
-        <v>1.033494323598273</v>
+        <v>1.061760072179398</v>
       </c>
       <c r="M5">
-        <v>1.055383180401884</v>
+        <v>1.069378692206458</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021695241556568</v>
+        <v>1.044429205177956</v>
       </c>
       <c r="D6">
-        <v>1.041088202028304</v>
+        <v>1.053353518862663</v>
       </c>
       <c r="E6">
-        <v>1.024152556033426</v>
+        <v>1.052694194980617</v>
       </c>
       <c r="F6">
-        <v>1.046291141068968</v>
+        <v>1.060410854004871</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057987299490094</v>
+        <v>1.061242286647177</v>
       </c>
       <c r="J6">
-        <v>1.040045237040837</v>
+        <v>1.062263121207865</v>
       </c>
       <c r="K6">
-        <v>1.050466232527089</v>
+        <v>1.062603261947673</v>
       </c>
       <c r="L6">
-        <v>1.033713926389361</v>
+        <v>1.061950741399663</v>
       </c>
       <c r="M6">
-        <v>1.055614303258753</v>
+        <v>1.069588420312008</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019555281253868</v>
+        <v>1.042605715437543</v>
       </c>
       <c r="D7">
-        <v>1.039393145079373</v>
+        <v>1.051940364953314</v>
       </c>
       <c r="E7">
-        <v>1.022363771302713</v>
+        <v>1.051118812142792</v>
       </c>
       <c r="F7">
-        <v>1.044430015240921</v>
+        <v>1.058705296714944</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057240810048029</v>
+        <v>1.060572655878865</v>
       </c>
       <c r="J7">
-        <v>1.038465739434274</v>
+        <v>1.060973255555567</v>
       </c>
       <c r="K7">
-        <v>1.049035436583502</v>
+        <v>1.061447060425615</v>
       </c>
       <c r="L7">
-        <v>1.032196661305675</v>
+        <v>1.060634264727459</v>
       </c>
       <c r="M7">
-        <v>1.054017393909512</v>
+        <v>1.068140514891975</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010352420177145</v>
+        <v>1.034795085708288</v>
       </c>
       <c r="D8">
-        <v>1.032106819959987</v>
+        <v>1.045891809443236</v>
       </c>
       <c r="E8">
-        <v>1.01468221316646</v>
+        <v>1.044381792834613</v>
       </c>
       <c r="F8">
-        <v>1.036435657312408</v>
+        <v>1.051413638821597</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053999830731999</v>
+        <v>1.057684065074228</v>
       </c>
       <c r="J8">
-        <v>1.031664524161826</v>
+        <v>1.055439946754591</v>
       </c>
       <c r="K8">
-        <v>1.042868761467588</v>
+        <v>1.056484058467017</v>
       </c>
       <c r="L8">
-        <v>1.025666910485997</v>
+        <v>1.054992358600924</v>
       </c>
       <c r="M8">
-        <v>1.047143705735609</v>
+        <v>1.061939462795158</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9930422141837107</v>
+        <v>1.020247149993726</v>
       </c>
       <c r="D9">
-        <v>1.018421770304128</v>
+        <v>1.034648023401202</v>
       </c>
       <c r="E9">
-        <v>1.000282930946215</v>
+        <v>1.031879772733861</v>
       </c>
       <c r="F9">
-        <v>1.021442615615548</v>
+        <v>1.037889578846203</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047789413053444</v>
+        <v>1.052228469891935</v>
       </c>
       <c r="J9">
-        <v>1.018843085108398</v>
+        <v>1.04510464458919</v>
       </c>
       <c r="K9">
-        <v>1.031222873946407</v>
+        <v>1.047202904137002</v>
       </c>
       <c r="L9">
-        <v>1.013371419460148</v>
+        <v>1.044475962732895</v>
       </c>
       <c r="M9">
-        <v>1.034197123615189</v>
+        <v>1.050396443238488</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9806361821042748</v>
+        <v>1.009944029143874</v>
       </c>
       <c r="D10">
-        <v>1.008635920918256</v>
+        <v>1.026705140090048</v>
       </c>
       <c r="E10">
-        <v>0.9900038499941448</v>
+        <v>1.023061489245614</v>
       </c>
       <c r="F10">
-        <v>1.010735578635815</v>
+        <v>1.028354631097559</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043265629025551</v>
+        <v>1.048316645144428</v>
       </c>
       <c r="J10">
-        <v>1.009639706305463</v>
+        <v>1.037768592628006</v>
       </c>
       <c r="K10">
-        <v>1.022850982330845</v>
+        <v>1.040608403549659</v>
       </c>
       <c r="L10">
-        <v>1.004555964396329</v>
+        <v>1.037026481833407</v>
       </c>
       <c r="M10">
-        <v>1.024913667021283</v>
+        <v>1.042230135062034</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9750248348264754</v>
+        <v>1.005319933658945</v>
       </c>
       <c r="D11">
-        <v>1.004217059523772</v>
+        <v>1.023146384701487</v>
       </c>
       <c r="E11">
-        <v>0.9853660253441473</v>
+        <v>1.01911342457584</v>
       </c>
       <c r="F11">
-        <v>1.005903931262855</v>
+        <v>1.024086550102721</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041203435314538</v>
+        <v>1.046550340462899</v>
       </c>
       <c r="J11">
-        <v>1.005474827916134</v>
+        <v>1.034473059728329</v>
       </c>
       <c r="K11">
-        <v>1.019059884072001</v>
+        <v>1.037644608177462</v>
       </c>
       <c r="L11">
-        <v>1.000569296361479</v>
+        <v>1.033683672294278</v>
       </c>
       <c r="M11">
-        <v>1.020715360390548</v>
+        <v>1.038568089035692</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9729012170707529</v>
+        <v>1.0035760429019</v>
       </c>
       <c r="D12">
-        <v>1.002546046132019</v>
+        <v>1.021805293458743</v>
       </c>
       <c r="E12">
-        <v>0.9836127375166379</v>
+        <v>1.017626036031857</v>
       </c>
       <c r="F12">
-        <v>1.004077283282985</v>
+        <v>1.022478711203516</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040420704575475</v>
+        <v>1.045882680188116</v>
       </c>
       <c r="J12">
-        <v>1.003898434100054</v>
+        <v>1.03322982548799</v>
       </c>
       <c r="K12">
-        <v>1.017624629936873</v>
+        <v>1.036526331656884</v>
       </c>
       <c r="L12">
-        <v>0.9990607730563072</v>
+        <v>1.03242316455788</v>
       </c>
       <c r="M12">
-        <v>1.019126783661084</v>
+        <v>1.037187564373511</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9733585775722184</v>
+        <v>1.003951334887773</v>
       </c>
       <c r="D13">
-        <v>1.002905867406777</v>
+        <v>1.022093853111351</v>
       </c>
       <c r="E13">
-        <v>0.983990251860265</v>
+        <v>1.017946056018963</v>
       </c>
       <c r="F13">
-        <v>1.004470596927203</v>
+        <v>1.022824641939819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04058938158684</v>
+        <v>1.046026431236843</v>
       </c>
       <c r="J13">
-        <v>1.004237946334514</v>
+        <v>1.033497390413863</v>
       </c>
       <c r="K13">
-        <v>1.017933758959698</v>
+        <v>1.036767011836238</v>
       </c>
       <c r="L13">
-        <v>0.9993856486233289</v>
+        <v>1.032694421520853</v>
       </c>
       <c r="M13">
-        <v>1.019468897754357</v>
+        <v>1.03748463233019</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9748501187234366</v>
+        <v>1.005176330823391</v>
       </c>
       <c r="D14">
-        <v>1.004079552726131</v>
+        <v>1.023035929341963</v>
       </c>
       <c r="E14">
-        <v>0.9852217377514693</v>
+        <v>1.018990911640351</v>
       </c>
       <c r="F14">
-        <v>1.005753608092917</v>
+        <v>1.023954113745229</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041139083576513</v>
+        <v>1.046495391831532</v>
       </c>
       <c r="J14">
-        <v>1.005345136640196</v>
+        <v>1.034370691447963</v>
       </c>
       <c r="K14">
-        <v>1.018941811024862</v>
+        <v>1.037552532693854</v>
       </c>
       <c r="L14">
-        <v>1.000445180249808</v>
+        <v>1.033579870254894</v>
       </c>
       <c r="M14">
-        <v>1.020584657002986</v>
+        <v>1.038454396369676</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9757637899647265</v>
+        <v>1.005927548650751</v>
       </c>
       <c r="D15">
-        <v>1.004798693705369</v>
+        <v>1.023613787976209</v>
       </c>
       <c r="E15">
-        <v>0.9859763625432171</v>
+        <v>1.019631867309788</v>
       </c>
       <c r="F15">
-        <v>1.006539795578354</v>
+        <v>1.024646990643515</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041475516124909</v>
+        <v>1.046782778220408</v>
       </c>
       <c r="J15">
-        <v>1.006023345183333</v>
+        <v>1.034906187061742</v>
       </c>
       <c r="K15">
-        <v>1.019559249751243</v>
+        <v>1.038034178362212</v>
       </c>
       <c r="L15">
-        <v>1.001094251109806</v>
+        <v>1.034122888870667</v>
       </c>
       <c r="M15">
-        <v>1.021268177669353</v>
+        <v>1.03904917039403</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9810032682263428</v>
+        <v>1.010247332606508</v>
       </c>
       <c r="D16">
-        <v>1.008925165122374</v>
+        <v>1.026938701166507</v>
       </c>
       <c r="E16">
-        <v>0.990307501624925</v>
+        <v>1.023320658979703</v>
       </c>
       <c r="F16">
-        <v>1.011051907076318</v>
+        <v>1.02863482455682</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043400212230354</v>
+        <v>1.048432284946492</v>
       </c>
       <c r="J16">
-        <v>1.009912132925723</v>
+        <v>1.037984695498231</v>
       </c>
       <c r="K16">
-        <v>1.023098911410926</v>
+        <v>1.040802725666193</v>
       </c>
       <c r="L16">
-        <v>1.004816790774199</v>
+        <v>1.037245761934766</v>
       </c>
       <c r="M16">
-        <v>1.025188342218219</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.042470406373453</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,75 +1036,81 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9842235173049815</v>
+        <v>1.012912195383163</v>
       </c>
       <c r="D17">
-        <v>1.011463401325935</v>
+        <v>1.028991497785279</v>
       </c>
       <c r="E17">
-        <v>0.9929725893549028</v>
+        <v>1.025598860132693</v>
       </c>
       <c r="F17">
-        <v>1.01382817621303</v>
+        <v>1.031097926406696</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044579039871943</v>
+        <v>1.04944711091621</v>
       </c>
       <c r="J17">
-        <v>1.01230175983996</v>
+        <v>1.03988306296401</v>
       </c>
       <c r="K17">
-        <v>1.025273377296559</v>
+        <v>1.04250960406426</v>
       </c>
       <c r="L17">
-        <v>1.007104966787152</v>
+        <v>1.039172457675691</v>
       </c>
       <c r="M17">
-        <v>1.027598015083729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.044581815082012</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9860789768034423</v>
+        <v>1.014450992734323</v>
       </c>
       <c r="D18">
-        <v>1.01292657241719</v>
+        <v>1.030177427377889</v>
       </c>
       <c r="E18">
-        <v>0.9945092404272811</v>
+        <v>1.026915285759861</v>
       </c>
       <c r="F18">
-        <v>1.01542886227853</v>
+        <v>1.032521275050077</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045256746028164</v>
+        <v>1.050032100489838</v>
       </c>
       <c r="J18">
-        <v>1.013678419542836</v>
+        <v>1.040978960042083</v>
       </c>
       <c r="K18">
-        <v>1.026525845470539</v>
+        <v>1.043494825555646</v>
       </c>
       <c r="L18">
-        <v>1.008423429428654</v>
+        <v>1.04028505476347</v>
       </c>
       <c r="M18">
-        <v>1.028986483930368</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.045801306563955</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.986707858230962</v>
+        <v>1.014973094566033</v>
       </c>
       <c r="D19">
-        <v>1.013422602550784</v>
+        <v>1.030579896209763</v>
       </c>
       <c r="E19">
-        <v>0.995030242498426</v>
+        <v>1.027362088688409</v>
       </c>
       <c r="F19">
-        <v>1.015971562821292</v>
+        <v>1.033004382434242</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045486184209163</v>
+        <v>1.05023040935008</v>
       </c>
       <c r="J19">
-        <v>1.014144979925919</v>
+        <v>1.041350737012262</v>
       </c>
       <c r="K19">
-        <v>1.026950274955078</v>
+        <v>1.04382903352896</v>
       </c>
       <c r="L19">
-        <v>1.008870308041641</v>
+        <v>1.040662555655254</v>
       </c>
       <c r="M19">
-        <v>1.029457089426019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.046215115414697</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9838804020873341</v>
+        <v>1.012627904240267</v>
       </c>
       <c r="D20">
-        <v>1.011192882346268</v>
+        <v>1.028772443370163</v>
       </c>
       <c r="E20">
-        <v>0.9926885140949563</v>
+        <v>1.02535572420264</v>
       </c>
       <c r="F20">
-        <v>1.013532257159066</v>
+        <v>1.030835049073715</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044453593457422</v>
+        <v>1.049338952435455</v>
       </c>
       <c r="J20">
-        <v>1.012047167558147</v>
+        <v>1.039680572736586</v>
       </c>
       <c r="K20">
-        <v>1.025041732824115</v>
+        <v>1.042327552688357</v>
       </c>
       <c r="L20">
-        <v>1.006861157180971</v>
+        <v>1.038966909751539</v>
       </c>
       <c r="M20">
-        <v>1.027341259680369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.044356537421426</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.974412011221262</v>
+        <v>1.004816341644892</v>
       </c>
       <c r="D21">
-        <v>1.003734770768832</v>
+        <v>1.022759052482456</v>
       </c>
       <c r="E21">
-        <v>0.984859962109044</v>
+        <v>1.018683816755599</v>
       </c>
       <c r="F21">
-        <v>1.005376697986496</v>
+        <v>1.023622146244191</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040977682627835</v>
+        <v>1.04635762005789</v>
       </c>
       <c r="J21">
-        <v>1.00501992800739</v>
+        <v>1.034114064715467</v>
       </c>
       <c r="K21">
-        <v>1.018645730554303</v>
+        <v>1.037321705954323</v>
       </c>
       <c r="L21">
-        <v>1.000133958471124</v>
+        <v>1.033319658305318</v>
       </c>
       <c r="M21">
-        <v>1.020256918160686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.038169396298412</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9682294230499554</v>
+        <v>0.9997517130596395</v>
       </c>
       <c r="D22">
-        <v>0.9988726017003416</v>
+        <v>1.018866326011816</v>
       </c>
       <c r="E22">
-        <v>0.9797593552087525</v>
+        <v>1.014367188643035</v>
       </c>
       <c r="F22">
-        <v>1.000062536586349</v>
+        <v>1.018956148210856</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038694671821511</v>
+        <v>1.044415770328702</v>
       </c>
       <c r="J22">
-        <v>1.000430284706091</v>
+        <v>1.030502807422359</v>
       </c>
       <c r="K22">
-        <v>1.014466425704142</v>
+        <v>1.03407307876289</v>
       </c>
       <c r="L22">
-        <v>0.9957427371884353</v>
+        <v>1.029659302395222</v>
       </c>
       <c r="M22">
-        <v>1.015632754716551</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.034161206815677</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9715299079795133</v>
+        <v>1.002451752807068</v>
       </c>
       <c r="D23">
-        <v>1.001467398412574</v>
+        <v>1.020940993835826</v>
       </c>
       <c r="E23">
-        <v>0.9824811250040294</v>
+        <v>1.016667563959606</v>
       </c>
       <c r="F23">
-        <v>1.002898300933174</v>
+        <v>1.021442650705841</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039914632246884</v>
+        <v>1.045451815639531</v>
       </c>
       <c r="J23">
-        <v>1.002880452867323</v>
+        <v>1.032428210970209</v>
       </c>
       <c r="K23">
-        <v>1.016697702867049</v>
+        <v>1.035805236517817</v>
       </c>
       <c r="L23">
-        <v>0.9980867407922751</v>
+        <v>1.031610571878906</v>
       </c>
       <c r="M23">
-        <v>1.018101073885965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.036297703440622</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9840355114735374</v>
+        <v>1.01275641115667</v>
       </c>
       <c r="D24">
-        <v>1.011315171635814</v>
+        <v>1.028871459865914</v>
       </c>
       <c r="E24">
-        <v>0.992816930451479</v>
+        <v>1.025465625111577</v>
       </c>
       <c r="F24">
-        <v>1.013666027729234</v>
+        <v>1.030953873126567</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044510307747266</v>
+        <v>1.049387845996752</v>
       </c>
       <c r="J24">
-        <v>1.012162259734301</v>
+        <v>1.039772104455762</v>
       </c>
       <c r="K24">
-        <v>1.025146451847612</v>
+        <v>1.04240984583839</v>
       </c>
       <c r="L24">
-        <v>1.006971374119475</v>
+        <v>1.039059822567346</v>
       </c>
       <c r="M24">
-        <v>1.027457328920968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.044458367860837</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9976594880503975</v>
+        <v>1.024108630614296</v>
       </c>
       <c r="D25">
-        <v>1.02206895342575</v>
+        <v>1.03762940993537</v>
       </c>
       <c r="E25">
-        <v>1.004117359980172</v>
+        <v>1.035192396635836</v>
       </c>
       <c r="F25">
-        <v>1.025435928831119</v>
+        <v>1.041472234112651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049458738690413</v>
+        <v>1.053685021694649</v>
       </c>
       <c r="J25">
-        <v>1.022265877309903</v>
+        <v>1.047851018718289</v>
       </c>
       <c r="K25">
-        <v>1.034334071544575</v>
+        <v>1.049670369131352</v>
       </c>
       <c r="L25">
-        <v>1.016652093723394</v>
+        <v>1.047267899665994</v>
       </c>
       <c r="M25">
-        <v>1.037651811898743</v>
+        <v>1.053459137336468</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032733665469476</v>
+        <v>1.063857049188834</v>
       </c>
       <c r="D2">
-        <v>1.044296741461364</v>
+        <v>1.062743240390809</v>
       </c>
       <c r="E2">
-        <v>1.042606639713394</v>
+        <v>1.0686520845984</v>
       </c>
       <c r="F2">
-        <v>1.049492843657448</v>
+        <v>1.078065579570893</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056916598473933</v>
+        <v>1.05206115945295</v>
       </c>
       <c r="J2">
-        <v>1.053977532660224</v>
+        <v>1.068820272934943</v>
       </c>
       <c r="K2">
-        <v>1.055171610237183</v>
+        <v>1.065463760880149</v>
       </c>
       <c r="L2">
-        <v>1.053502671382964</v>
+        <v>1.071356694158912</v>
       </c>
       <c r="M2">
-        <v>1.060303180001459</v>
+        <v>1.080745230416667</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.03877271191751</v>
+        <v>1.065093264452941</v>
       </c>
       <c r="D3">
-        <v>1.048971147393649</v>
+        <v>1.063711229497851</v>
       </c>
       <c r="E3">
-        <v>1.047810480381561</v>
+        <v>1.069763634194439</v>
       </c>
       <c r="F3">
-        <v>1.055124204856775</v>
+        <v>1.079280221981993</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059159071985734</v>
+        <v>1.052454004787267</v>
       </c>
       <c r="J3">
-        <v>1.058259439999237</v>
+        <v>1.069710114300826</v>
       </c>
       <c r="K3">
-        <v>1.059013550412266</v>
+        <v>1.066246240683857</v>
       </c>
       <c r="L3">
-        <v>1.057866090172926</v>
+        <v>1.072283528993061</v>
       </c>
       <c r="M3">
-        <v>1.06509719223472</v>
+        <v>1.081776717094959</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.042584511048642</v>
+        <v>1.065892923662332</v>
       </c>
       <c r="D4">
-        <v>1.051923934344107</v>
+        <v>1.064337270394392</v>
       </c>
       <c r="E4">
-        <v>1.051100498556016</v>
+        <v>1.070482917961386</v>
       </c>
       <c r="F4">
-        <v>1.058685471003283</v>
+        <v>1.08006639377219</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060564857985381</v>
+        <v>1.052706863294401</v>
       </c>
       <c r="J4">
-        <v>1.060958251735708</v>
+        <v>1.070285102132902</v>
       </c>
       <c r="K4">
-        <v>1.061433609693704</v>
+        <v>1.066751623846446</v>
       </c>
       <c r="L4">
-        <v>1.060618954355297</v>
+        <v>1.072882696669001</v>
       </c>
       <c r="M4">
-        <v>1.068123678256539</v>
+        <v>1.082443799659464</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.044165077305061</v>
+        <v>1.066229041488041</v>
       </c>
       <c r="D5">
-        <v>1.053148804156551</v>
+        <v>1.064600384040476</v>
       </c>
       <c r="E5">
-        <v>1.052465944652762</v>
+        <v>1.070785314909472</v>
       </c>
       <c r="F5">
-        <v>1.060163731176158</v>
+        <v>1.080396953763106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061145410584902</v>
+        <v>1.052812845102037</v>
       </c>
       <c r="J5">
-        <v>1.062076337199202</v>
+        <v>1.070526636950645</v>
       </c>
       <c r="K5">
-        <v>1.062435851853033</v>
+        <v>1.066963864412702</v>
       </c>
       <c r="L5">
-        <v>1.061760072179398</v>
+        <v>1.073134454712385</v>
       </c>
       <c r="M5">
-        <v>1.069378692206458</v>
+        <v>1.082724156683313</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.044429205177956</v>
+        <v>1.066285473756093</v>
       </c>
       <c r="D6">
-        <v>1.053353518862663</v>
+        <v>1.064644557670262</v>
       </c>
       <c r="E6">
-        <v>1.052694194980617</v>
+        <v>1.070836089312904</v>
       </c>
       <c r="F6">
-        <v>1.060410854004871</v>
+        <v>1.080452459411556</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061242286647177</v>
+        <v>1.052830621171062</v>
       </c>
       <c r="J6">
-        <v>1.062263121207865</v>
+        <v>1.070567180599296</v>
       </c>
       <c r="K6">
-        <v>1.062603261947673</v>
+        <v>1.06699948751801</v>
       </c>
       <c r="L6">
-        <v>1.061950741399663</v>
+        <v>1.073176718286175</v>
       </c>
       <c r="M6">
-        <v>1.069588420312008</v>
+        <v>1.082771224944406</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.042605715437543</v>
+        <v>1.065897415114027</v>
       </c>
       <c r="D7">
-        <v>1.051940364953314</v>
+        <v>1.064340786421202</v>
       </c>
       <c r="E7">
-        <v>1.051118812142792</v>
+        <v>1.070486958563168</v>
       </c>
       <c r="F7">
-        <v>1.058705296714944</v>
+        <v>1.080070810519458</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060572655878865</v>
+        <v>1.052708280684802</v>
       </c>
       <c r="J7">
-        <v>1.060973255555567</v>
+        <v>1.070288330278262</v>
       </c>
       <c r="K7">
-        <v>1.061447060425615</v>
+        <v>1.066754460688379</v>
       </c>
       <c r="L7">
-        <v>1.060634264727459</v>
+        <v>1.072886061189701</v>
       </c>
       <c r="M7">
-        <v>1.068140514891975</v>
+        <v>1.082447546134099</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.034795085708288</v>
+        <v>1.064274887918893</v>
       </c>
       <c r="D8">
-        <v>1.045891809443236</v>
+        <v>1.063070442168659</v>
       </c>
       <c r="E8">
-        <v>1.044381792834613</v>
+        <v>1.069027731099451</v>
       </c>
       <c r="F8">
-        <v>1.051413638821597</v>
+        <v>1.078476029609322</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057684065074228</v>
+        <v>1.052194200905632</v>
       </c>
       <c r="J8">
-        <v>1.055439946754591</v>
+        <v>1.069121165172783</v>
       </c>
       <c r="K8">
-        <v>1.056484058467017</v>
+        <v>1.065728397495771</v>
       </c>
       <c r="L8">
-        <v>1.054992358600924</v>
+        <v>1.07167003824608</v>
       </c>
       <c r="M8">
-        <v>1.061939462795158</v>
+        <v>1.081093901131599</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.020247149993726</v>
+        <v>1.061413743593206</v>
       </c>
       <c r="D9">
-        <v>1.034648023401202</v>
+        <v>1.060829495441938</v>
       </c>
       <c r="E9">
-        <v>1.031879772733861</v>
+        <v>1.066456612621051</v>
       </c>
       <c r="F9">
-        <v>1.037889578846203</v>
+        <v>1.075667418608601</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052228469891935</v>
+        <v>1.051278047836727</v>
       </c>
       <c r="J9">
-        <v>1.04510464458919</v>
+        <v>1.067058296391802</v>
       </c>
       <c r="K9">
-        <v>1.047202904137002</v>
+        <v>1.063913148223366</v>
       </c>
       <c r="L9">
-        <v>1.044475962732895</v>
+        <v>1.069522936318202</v>
       </c>
       <c r="M9">
-        <v>1.050396443238488</v>
+        <v>1.078705803555414</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.009944029143874</v>
+        <v>1.059504807249836</v>
       </c>
       <c r="D10">
-        <v>1.026705140090048</v>
+        <v>1.059333830171813</v>
       </c>
       <c r="E10">
-        <v>1.023061489245614</v>
+        <v>1.064742605969384</v>
       </c>
       <c r="F10">
-        <v>1.028354631097559</v>
+        <v>1.073795991791327</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048316645144428</v>
+        <v>1.050660330551296</v>
       </c>
       <c r="J10">
-        <v>1.037768592628006</v>
+        <v>1.065678819800986</v>
       </c>
       <c r="K10">
-        <v>1.040608403549659</v>
+        <v>1.062698080156298</v>
       </c>
       <c r="L10">
-        <v>1.037026481833407</v>
+        <v>1.068088558832393</v>
       </c>
       <c r="M10">
-        <v>1.042230135062034</v>
+        <v>1.077111770974686</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.005319933658945</v>
+        <v>1.058677829183443</v>
       </c>
       <c r="D11">
-        <v>1.023146384701487</v>
+        <v>1.058685772652103</v>
       </c>
       <c r="E11">
-        <v>1.01911342457584</v>
+        <v>1.064000420694308</v>
       </c>
       <c r="F11">
-        <v>1.024086550102721</v>
+        <v>1.07298585437603</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046550340462899</v>
+        <v>1.050391195233523</v>
       </c>
       <c r="J11">
-        <v>1.034473059728329</v>
+        <v>1.065080469426528</v>
       </c>
       <c r="K11">
-        <v>1.037644608177462</v>
+        <v>1.06217076458821</v>
       </c>
       <c r="L11">
-        <v>1.033683672294278</v>
+        <v>1.067466734095875</v>
       </c>
       <c r="M11">
-        <v>1.038568089035692</v>
+        <v>1.076421051263113</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.0035760429019</v>
+        <v>1.058370590515273</v>
       </c>
       <c r="D12">
-        <v>1.021805293458743</v>
+        <v>1.058444990092801</v>
       </c>
       <c r="E12">
-        <v>1.017626036031857</v>
+        <v>1.063724736970102</v>
       </c>
       <c r="F12">
-        <v>1.022478711203516</v>
+        <v>1.072684961777557</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045882680188116</v>
+        <v>1.050290976223825</v>
       </c>
       <c r="J12">
-        <v>1.03322982548799</v>
+        <v>1.064858059353596</v>
       </c>
       <c r="K12">
-        <v>1.036526331656884</v>
+        <v>1.061974716978239</v>
       </c>
       <c r="L12">
-        <v>1.03242316455788</v>
+        <v>1.067235649451026</v>
       </c>
       <c r="M12">
-        <v>1.037187564373511</v>
+        <v>1.076164411365345</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.003951334887773</v>
+        <v>1.058436497110218</v>
       </c>
       <c r="D13">
-        <v>1.022093853111351</v>
+        <v>1.058496641738697</v>
       </c>
       <c r="E13">
-        <v>1.017946056018963</v>
+        <v>1.063783872230966</v>
       </c>
       <c r="F13">
-        <v>1.022824641939819</v>
+        <v>1.072749503002633</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046026431236843</v>
+        <v>1.050312484875556</v>
       </c>
       <c r="J13">
-        <v>1.033497390413863</v>
+        <v>1.06490577416006</v>
       </c>
       <c r="K13">
-        <v>1.036767011836238</v>
+        <v>1.062016777984339</v>
       </c>
       <c r="L13">
-        <v>1.032694421520853</v>
+        <v>1.067285222951919</v>
       </c>
       <c r="M13">
-        <v>1.03748463233019</v>
+        <v>1.07621946495498</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.005176330823391</v>
+        <v>1.058652434023605</v>
       </c>
       <c r="D14">
-        <v>1.023035929341963</v>
+        <v>1.058665870827348</v>
       </c>
       <c r="E14">
-        <v>1.018990911640351</v>
+        <v>1.0639776326641</v>
       </c>
       <c r="F14">
-        <v>1.023954113745229</v>
+        <v>1.072960981929705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046495391831532</v>
+        <v>1.050382916207072</v>
       </c>
       <c r="J14">
-        <v>1.034370691447963</v>
+        <v>1.065062088134636</v>
       </c>
       <c r="K14">
-        <v>1.037552532693854</v>
+        <v>1.06215456289382</v>
       </c>
       <c r="L14">
-        <v>1.033579870254894</v>
+        <v>1.06744763484582</v>
       </c>
       <c r="M14">
-        <v>1.038454396369676</v>
+        <v>1.076399838886476</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.005927548650751</v>
+        <v>1.058785471560916</v>
       </c>
       <c r="D15">
-        <v>1.023613787976209</v>
+        <v>1.058770129781686</v>
       </c>
       <c r="E15">
-        <v>1.019631867309788</v>
+        <v>1.064097014404407</v>
       </c>
       <c r="F15">
-        <v>1.024646990643515</v>
+        <v>1.073091284795619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046782778220408</v>
+        <v>1.050426278100382</v>
       </c>
       <c r="J15">
-        <v>1.034906187061742</v>
+        <v>1.065158377598268</v>
       </c>
       <c r="K15">
-        <v>1.038034178362212</v>
+        <v>1.062239432946161</v>
       </c>
       <c r="L15">
-        <v>1.034122888870667</v>
+        <v>1.067547687384048</v>
       </c>
       <c r="M15">
-        <v>1.03904917039403</v>
+        <v>1.076510963116101</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.010247332606508</v>
+        <v>1.059559682486749</v>
       </c>
       <c r="D16">
-        <v>1.026938701166507</v>
+        <v>1.059376830554194</v>
       </c>
       <c r="E16">
-        <v>1.023320658979703</v>
+        <v>1.064791862025169</v>
       </c>
       <c r="F16">
-        <v>1.02863482455682</v>
+        <v>1.073849762048636</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048432284946492</v>
+        <v>1.050678157138525</v>
       </c>
       <c r="J16">
-        <v>1.037984695498231</v>
+        <v>1.065718508545365</v>
       </c>
       <c r="K16">
-        <v>1.040802725666193</v>
+        <v>1.062733051309648</v>
       </c>
       <c r="L16">
-        <v>1.037245761934766</v>
+        <v>1.068129811778961</v>
       </c>
       <c r="M16">
-        <v>1.042470406373453</v>
+        <v>1.077157601228065</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.012912195383163</v>
+        <v>1.060045216616109</v>
       </c>
       <c r="D17">
-        <v>1.028991497785279</v>
+        <v>1.059757283292209</v>
       </c>
       <c r="E17">
-        <v>1.025598860132693</v>
+        <v>1.065227717947015</v>
       </c>
       <c r="F17">
-        <v>1.031097926406696</v>
+        <v>1.074325587694898</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04944711091621</v>
+        <v>1.050835709285125</v>
       </c>
       <c r="J17">
-        <v>1.03988306296401</v>
+        <v>1.066069587511152</v>
       </c>
       <c r="K17">
-        <v>1.04250960406426</v>
+        <v>1.063042367347255</v>
       </c>
       <c r="L17">
-        <v>1.039172457675691</v>
+        <v>1.068494766507409</v>
       </c>
       <c r="M17">
-        <v>1.044581815082012</v>
+        <v>1.077563086975599</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.014450992734323</v>
+        <v>1.060328382431119</v>
       </c>
       <c r="D18">
-        <v>1.030177427377889</v>
+        <v>1.059979154063713</v>
       </c>
       <c r="E18">
-        <v>1.026915285759861</v>
+        <v>1.065481944572084</v>
       </c>
       <c r="F18">
-        <v>1.032521275050077</v>
+        <v>1.0746031484394</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050032100489838</v>
+        <v>1.050927446710176</v>
       </c>
       <c r="J18">
-        <v>1.040978960042083</v>
+        <v>1.066274266868013</v>
       </c>
       <c r="K18">
-        <v>1.043494825555646</v>
+        <v>1.063222672103732</v>
       </c>
       <c r="L18">
-        <v>1.04028505476347</v>
+        <v>1.068707568118529</v>
       </c>
       <c r="M18">
-        <v>1.045801306563955</v>
+        <v>1.077799552496662</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014973094566033</v>
+        <v>1.060424928287102</v>
       </c>
       <c r="D19">
-        <v>1.030579896209763</v>
+        <v>1.060054799370613</v>
       </c>
       <c r="E19">
-        <v>1.027362088688409</v>
+        <v>1.065568629203464</v>
       </c>
       <c r="F19">
-        <v>1.033004382434242</v>
+        <v>1.074697792879599</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05023040935008</v>
+        <v>1.050958699674368</v>
       </c>
       <c r="J19">
-        <v>1.041350737012262</v>
+        <v>1.066344040486406</v>
       </c>
       <c r="K19">
-        <v>1.04382903352896</v>
+        <v>1.06328413206196</v>
       </c>
       <c r="L19">
-        <v>1.040662555655254</v>
+        <v>1.068780116091314</v>
       </c>
       <c r="M19">
-        <v>1.046215115414697</v>
+        <v>1.077880173132099</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.012627904240267</v>
+        <v>1.059993127353212</v>
       </c>
       <c r="D20">
-        <v>1.028772443370163</v>
+        <v>1.059716468552456</v>
       </c>
       <c r="E20">
-        <v>1.02535572420264</v>
+        <v>1.065180954823458</v>
       </c>
       <c r="F20">
-        <v>1.030835049073715</v>
+        <v>1.074274534084269</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049338952435455</v>
+        <v>1.050818821994782</v>
       </c>
       <c r="J20">
-        <v>1.039680572736586</v>
+        <v>1.066031930320374</v>
       </c>
       <c r="K20">
-        <v>1.042327552688357</v>
+        <v>1.063009192471851</v>
       </c>
       <c r="L20">
-        <v>1.038966909751539</v>
+        <v>1.068455617603699</v>
       </c>
       <c r="M20">
-        <v>1.044356537421426</v>
+        <v>1.077519587114633</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.004816341644892</v>
+        <v>1.058588847723191</v>
       </c>
       <c r="D21">
-        <v>1.022759052482456</v>
+        <v>1.058616038887781</v>
       </c>
       <c r="E21">
-        <v>1.018683816755599</v>
+        <v>1.063920575144263</v>
       </c>
       <c r="F21">
-        <v>1.023622146244191</v>
+        <v>1.072898705885367</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04635762005789</v>
+        <v>1.050362182847925</v>
       </c>
       <c r="J21">
-        <v>1.034114064715467</v>
+        <v>1.065016061887774</v>
       </c>
       <c r="K21">
-        <v>1.037321705954323</v>
+        <v>1.062113993628166</v>
       </c>
       <c r="L21">
-        <v>1.033319658305318</v>
+        <v>1.067399811675049</v>
       </c>
       <c r="M21">
-        <v>1.038169396298412</v>
+        <v>1.076346725367153</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9997517130596395</v>
+        <v>1.057705560216798</v>
       </c>
       <c r="D22">
-        <v>1.018866326011816</v>
+        <v>1.057923777518498</v>
       </c>
       <c r="E22">
-        <v>1.014367188643035</v>
+        <v>1.063128105822981</v>
       </c>
       <c r="F22">
-        <v>1.018956148210856</v>
+        <v>1.072033832064472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044415770328702</v>
+        <v>1.050073627880074</v>
       </c>
       <c r="J22">
-        <v>1.030502807422359</v>
+        <v>1.064376441094569</v>
       </c>
       <c r="K22">
-        <v>1.03407307876289</v>
+        <v>1.061550109509574</v>
       </c>
       <c r="L22">
-        <v>1.029659302395222</v>
+        <v>1.066735340122136</v>
       </c>
       <c r="M22">
-        <v>1.034161206815677</v>
+        <v>1.075608860958362</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.002451752807068</v>
+        <v>1.05817384277179</v>
       </c>
       <c r="D23">
-        <v>1.020940993835826</v>
+        <v>1.058290794610076</v>
       </c>
       <c r="E23">
-        <v>1.016667563959606</v>
+        <v>1.063548211136578</v>
       </c>
       <c r="F23">
-        <v>1.021442650705841</v>
+        <v>1.072492303151141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045451815639531</v>
+        <v>1.050226733839835</v>
       </c>
       <c r="J23">
-        <v>1.032428210970209</v>
+        <v>1.06471560242604</v>
       </c>
       <c r="K23">
-        <v>1.035805236517817</v>
+        <v>1.061849133916374</v>
       </c>
       <c r="L23">
-        <v>1.031610571878906</v>
+        <v>1.067087650688796</v>
       </c>
       <c r="M23">
-        <v>1.036297703440622</v>
+        <v>1.076000059108402</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.01275641115667</v>
+        <v>1.060016664366464</v>
       </c>
       <c r="D24">
-        <v>1.028871459865914</v>
+        <v>1.05973491110289</v>
       </c>
       <c r="E24">
-        <v>1.025465625111577</v>
+        <v>1.065202085068531</v>
       </c>
       <c r="F24">
-        <v>1.030953873126567</v>
+        <v>1.074297602952558</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049387845996752</v>
+        <v>1.050826453129025</v>
       </c>
       <c r="J24">
-        <v>1.039772104455762</v>
+        <v>1.06604894629009</v>
       </c>
       <c r="K24">
-        <v>1.04240984583839</v>
+        <v>1.063024183122517</v>
       </c>
       <c r="L24">
-        <v>1.039059822567346</v>
+        <v>1.068473307525438</v>
       </c>
       <c r="M24">
-        <v>1.044458367860837</v>
+        <v>1.077539242976066</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.024108630614296</v>
+        <v>1.062153673845778</v>
       </c>
       <c r="D25">
-        <v>1.03762940993537</v>
+        <v>1.061409129120433</v>
       </c>
       <c r="E25">
-        <v>1.035192396635836</v>
+        <v>1.067121289740179</v>
       </c>
       <c r="F25">
-        <v>1.041472234112651</v>
+        <v>1.07639333221923</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053685021694649</v>
+        <v>1.051516117333635</v>
       </c>
       <c r="J25">
-        <v>1.047851018718289</v>
+        <v>1.067592337298529</v>
       </c>
       <c r="K25">
-        <v>1.049670369131352</v>
+        <v>1.064383292923893</v>
       </c>
       <c r="L25">
-        <v>1.047267899665994</v>
+        <v>1.070078532653068</v>
       </c>
       <c r="M25">
-        <v>1.053459137336468</v>
+        <v>1.079323524676657</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.063857049188834</v>
+        <v>1.032733665469476</v>
       </c>
       <c r="D2">
-        <v>1.062743240390809</v>
+        <v>1.044296741461363</v>
       </c>
       <c r="E2">
-        <v>1.0686520845984</v>
+        <v>1.042606639713394</v>
       </c>
       <c r="F2">
-        <v>1.078065579570893</v>
+        <v>1.049492843657448</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05206115945295</v>
+        <v>1.056916598473933</v>
       </c>
       <c r="J2">
-        <v>1.068820272934943</v>
+        <v>1.053977532660224</v>
       </c>
       <c r="K2">
-        <v>1.065463760880149</v>
+        <v>1.055171610237183</v>
       </c>
       <c r="L2">
-        <v>1.071356694158912</v>
+        <v>1.053502671382964</v>
       </c>
       <c r="M2">
-        <v>1.080745230416667</v>
+        <v>1.06030318000146</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065093264452941</v>
+        <v>1.038772711917509</v>
       </c>
       <c r="D3">
-        <v>1.063711229497851</v>
+        <v>1.048971147393648</v>
       </c>
       <c r="E3">
-        <v>1.069763634194439</v>
+        <v>1.04781048038156</v>
       </c>
       <c r="F3">
-        <v>1.079280221981993</v>
+        <v>1.055124204856774</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052454004787267</v>
+        <v>1.059159071985733</v>
       </c>
       <c r="J3">
-        <v>1.069710114300826</v>
+        <v>1.058259439999236</v>
       </c>
       <c r="K3">
-        <v>1.066246240683857</v>
+        <v>1.059013550412265</v>
       </c>
       <c r="L3">
-        <v>1.072283528993061</v>
+        <v>1.057866090172925</v>
       </c>
       <c r="M3">
-        <v>1.081776717094959</v>
+        <v>1.065097192234719</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.065892923662332</v>
+        <v>1.042584511048642</v>
       </c>
       <c r="D4">
-        <v>1.064337270394392</v>
+        <v>1.051923934344106</v>
       </c>
       <c r="E4">
-        <v>1.070482917961386</v>
+        <v>1.051100498556015</v>
       </c>
       <c r="F4">
-        <v>1.08006639377219</v>
+        <v>1.058685471003282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052706863294401</v>
+        <v>1.06056485798538</v>
       </c>
       <c r="J4">
-        <v>1.070285102132902</v>
+        <v>1.060958251735707</v>
       </c>
       <c r="K4">
-        <v>1.066751623846446</v>
+        <v>1.061433609693703</v>
       </c>
       <c r="L4">
-        <v>1.072882696669001</v>
+        <v>1.060618954355297</v>
       </c>
       <c r="M4">
-        <v>1.082443799659464</v>
+        <v>1.068123678256539</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.066229041488041</v>
+        <v>1.044165077305062</v>
       </c>
       <c r="D5">
-        <v>1.064600384040476</v>
+        <v>1.053148804156551</v>
       </c>
       <c r="E5">
-        <v>1.070785314909472</v>
+        <v>1.052465944652763</v>
       </c>
       <c r="F5">
-        <v>1.080396953763106</v>
+        <v>1.060163731176159</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052812845102037</v>
+        <v>1.061145410584903</v>
       </c>
       <c r="J5">
-        <v>1.070526636950645</v>
+        <v>1.062076337199203</v>
       </c>
       <c r="K5">
-        <v>1.066963864412702</v>
+        <v>1.062435851853033</v>
       </c>
       <c r="L5">
-        <v>1.073134454712385</v>
+        <v>1.061760072179398</v>
       </c>
       <c r="M5">
-        <v>1.082724156683313</v>
+        <v>1.069378692206459</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066285473756093</v>
+        <v>1.044429205177956</v>
       </c>
       <c r="D6">
-        <v>1.064644557670262</v>
+        <v>1.053353518862663</v>
       </c>
       <c r="E6">
-        <v>1.070836089312904</v>
+        <v>1.052694194980617</v>
       </c>
       <c r="F6">
-        <v>1.080452459411556</v>
+        <v>1.060410854004872</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052830621171062</v>
+        <v>1.061242286647177</v>
       </c>
       <c r="J6">
-        <v>1.070567180599296</v>
+        <v>1.062263121207866</v>
       </c>
       <c r="K6">
-        <v>1.06699948751801</v>
+        <v>1.062603261947674</v>
       </c>
       <c r="L6">
-        <v>1.073176718286175</v>
+        <v>1.061950741399664</v>
       </c>
       <c r="M6">
-        <v>1.082771224944406</v>
+        <v>1.069588420312009</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.065897415114027</v>
+        <v>1.042605715437542</v>
       </c>
       <c r="D7">
-        <v>1.064340786421202</v>
+        <v>1.051940364953313</v>
       </c>
       <c r="E7">
-        <v>1.070486958563168</v>
+        <v>1.051118812142791</v>
       </c>
       <c r="F7">
-        <v>1.080070810519458</v>
+        <v>1.058705296714943</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052708280684802</v>
+        <v>1.060572655878864</v>
       </c>
       <c r="J7">
-        <v>1.070288330278262</v>
+        <v>1.060973255555566</v>
       </c>
       <c r="K7">
-        <v>1.066754460688379</v>
+        <v>1.061447060425614</v>
       </c>
       <c r="L7">
-        <v>1.072886061189701</v>
+        <v>1.060634264727457</v>
       </c>
       <c r="M7">
-        <v>1.082447546134099</v>
+        <v>1.068140514891974</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064274887918893</v>
+        <v>1.034795085708289</v>
       </c>
       <c r="D8">
-        <v>1.063070442168659</v>
+        <v>1.045891809443237</v>
       </c>
       <c r="E8">
-        <v>1.069027731099451</v>
+        <v>1.044381792834614</v>
       </c>
       <c r="F8">
-        <v>1.078476029609322</v>
+        <v>1.051413638821598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052194200905632</v>
+        <v>1.057684065074229</v>
       </c>
       <c r="J8">
-        <v>1.069121165172783</v>
+        <v>1.055439946754592</v>
       </c>
       <c r="K8">
-        <v>1.065728397495771</v>
+        <v>1.056484058467019</v>
       </c>
       <c r="L8">
-        <v>1.07167003824608</v>
+        <v>1.054992358600924</v>
       </c>
       <c r="M8">
-        <v>1.081093901131599</v>
+        <v>1.061939462795159</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.061413743593206</v>
+        <v>1.020247149993726</v>
       </c>
       <c r="D9">
-        <v>1.060829495441938</v>
+        <v>1.034648023401202</v>
       </c>
       <c r="E9">
-        <v>1.066456612621051</v>
+        <v>1.031879772733861</v>
       </c>
       <c r="F9">
-        <v>1.075667418608601</v>
+        <v>1.037889578846202</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051278047836727</v>
+        <v>1.052228469891935</v>
       </c>
       <c r="J9">
-        <v>1.067058296391802</v>
+        <v>1.04510464458919</v>
       </c>
       <c r="K9">
-        <v>1.063913148223366</v>
+        <v>1.047202904137002</v>
       </c>
       <c r="L9">
-        <v>1.069522936318202</v>
+        <v>1.044475962732895</v>
       </c>
       <c r="M9">
-        <v>1.078705803555414</v>
+        <v>1.050396443238488</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059504807249836</v>
+        <v>1.009944029143874</v>
       </c>
       <c r="D10">
-        <v>1.059333830171813</v>
+        <v>1.026705140090049</v>
       </c>
       <c r="E10">
-        <v>1.064742605969384</v>
+        <v>1.023061489245614</v>
       </c>
       <c r="F10">
-        <v>1.073795991791327</v>
+        <v>1.02835463109756</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050660330551296</v>
+        <v>1.048316645144429</v>
       </c>
       <c r="J10">
-        <v>1.065678819800986</v>
+        <v>1.037768592628007</v>
       </c>
       <c r="K10">
-        <v>1.062698080156298</v>
+        <v>1.04060840354966</v>
       </c>
       <c r="L10">
-        <v>1.068088558832393</v>
+        <v>1.037026481833407</v>
       </c>
       <c r="M10">
-        <v>1.077111770974686</v>
+        <v>1.042230135062035</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.058677829183443</v>
+        <v>1.005319933658947</v>
       </c>
       <c r="D11">
-        <v>1.058685772652103</v>
+        <v>1.02314638470149</v>
       </c>
       <c r="E11">
-        <v>1.064000420694308</v>
+        <v>1.019113424575842</v>
       </c>
       <c r="F11">
-        <v>1.07298585437603</v>
+        <v>1.024086550102724</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050391195233523</v>
+        <v>1.0465503404629</v>
       </c>
       <c r="J11">
-        <v>1.065080469426528</v>
+        <v>1.034473059728332</v>
       </c>
       <c r="K11">
-        <v>1.06217076458821</v>
+        <v>1.037644608177464</v>
       </c>
       <c r="L11">
-        <v>1.067466734095875</v>
+        <v>1.033683672294281</v>
       </c>
       <c r="M11">
-        <v>1.076421051263113</v>
+        <v>1.038568089035695</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058370590515273</v>
+        <v>1.003576042901901</v>
       </c>
       <c r="D12">
-        <v>1.058444990092801</v>
+        <v>1.021805293458744</v>
       </c>
       <c r="E12">
-        <v>1.063724736970102</v>
+        <v>1.017626036031858</v>
       </c>
       <c r="F12">
-        <v>1.072684961777557</v>
+        <v>1.022478711203517</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050290976223825</v>
+        <v>1.045882680188116</v>
       </c>
       <c r="J12">
-        <v>1.064858059353596</v>
+        <v>1.033229825487991</v>
       </c>
       <c r="K12">
-        <v>1.061974716978239</v>
+        <v>1.036526331656885</v>
       </c>
       <c r="L12">
-        <v>1.067235649451026</v>
+        <v>1.032423164557881</v>
       </c>
       <c r="M12">
-        <v>1.076164411365345</v>
+        <v>1.037187564373512</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058436497110218</v>
+        <v>1.003951334887774</v>
       </c>
       <c r="D13">
-        <v>1.058496641738697</v>
+        <v>1.022093853111351</v>
       </c>
       <c r="E13">
-        <v>1.063783872230966</v>
+        <v>1.017946056018964</v>
       </c>
       <c r="F13">
-        <v>1.072749503002633</v>
+        <v>1.02282464193982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050312484875556</v>
+        <v>1.046026431236844</v>
       </c>
       <c r="J13">
-        <v>1.06490577416006</v>
+        <v>1.033497390413864</v>
       </c>
       <c r="K13">
-        <v>1.062016777984339</v>
+        <v>1.036767011836238</v>
       </c>
       <c r="L13">
-        <v>1.067285222951919</v>
+        <v>1.032694421520854</v>
       </c>
       <c r="M13">
-        <v>1.07621946495498</v>
+        <v>1.037484632330191</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.058652434023605</v>
+        <v>1.005176330823392</v>
       </c>
       <c r="D14">
-        <v>1.058665870827348</v>
+        <v>1.023035929341963</v>
       </c>
       <c r="E14">
-        <v>1.0639776326641</v>
+        <v>1.018990911640352</v>
       </c>
       <c r="F14">
-        <v>1.072960981929705</v>
+        <v>1.023954113745229</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050382916207072</v>
+        <v>1.046495391831532</v>
       </c>
       <c r="J14">
-        <v>1.065062088134636</v>
+        <v>1.034370691447963</v>
       </c>
       <c r="K14">
-        <v>1.06215456289382</v>
+        <v>1.037552532693854</v>
       </c>
       <c r="L14">
-        <v>1.06744763484582</v>
+        <v>1.033579870254895</v>
       </c>
       <c r="M14">
-        <v>1.076399838886476</v>
+        <v>1.038454396369677</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.058785471560916</v>
+        <v>1.005927548650751</v>
       </c>
       <c r="D15">
-        <v>1.058770129781686</v>
+        <v>1.023613787976209</v>
       </c>
       <c r="E15">
-        <v>1.064097014404407</v>
+        <v>1.019631867309788</v>
       </c>
       <c r="F15">
-        <v>1.073091284795619</v>
+        <v>1.024646990643514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050426278100382</v>
+        <v>1.046782778220408</v>
       </c>
       <c r="J15">
-        <v>1.065158377598268</v>
+        <v>1.034906187061742</v>
       </c>
       <c r="K15">
-        <v>1.062239432946161</v>
+        <v>1.038034178362212</v>
       </c>
       <c r="L15">
-        <v>1.067547687384048</v>
+        <v>1.034122888870667</v>
       </c>
       <c r="M15">
-        <v>1.076510963116101</v>
+        <v>1.039049170394029</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.059559682486749</v>
+        <v>1.010247332606506</v>
       </c>
       <c r="D16">
-        <v>1.059376830554194</v>
+        <v>1.026938701166504</v>
       </c>
       <c r="E16">
-        <v>1.064791862025169</v>
+        <v>1.023320658979701</v>
       </c>
       <c r="F16">
-        <v>1.073849762048636</v>
+        <v>1.028634824556818</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050678157138525</v>
+        <v>1.048432284946491</v>
       </c>
       <c r="J16">
-        <v>1.065718508545365</v>
+        <v>1.037984695498229</v>
       </c>
       <c r="K16">
-        <v>1.062733051309648</v>
+        <v>1.040802725666191</v>
       </c>
       <c r="L16">
-        <v>1.068129811778961</v>
+        <v>1.037245761934764</v>
       </c>
       <c r="M16">
-        <v>1.077157601228065</v>
+        <v>1.042470406373451</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060045216616109</v>
+        <v>1.012912195383165</v>
       </c>
       <c r="D17">
-        <v>1.059757283292209</v>
+        <v>1.02899149778528</v>
       </c>
       <c r="E17">
-        <v>1.065227717947015</v>
+        <v>1.025598860132694</v>
       </c>
       <c r="F17">
-        <v>1.074325587694898</v>
+        <v>1.031097926406697</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050835709285125</v>
+        <v>1.049447110916211</v>
       </c>
       <c r="J17">
-        <v>1.066069587511152</v>
+        <v>1.039883062964012</v>
       </c>
       <c r="K17">
-        <v>1.063042367347255</v>
+        <v>1.042509604064261</v>
       </c>
       <c r="L17">
-        <v>1.068494766507409</v>
+        <v>1.039172457675692</v>
       </c>
       <c r="M17">
-        <v>1.077563086975599</v>
+        <v>1.044581815082013</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.060328382431119</v>
+        <v>1.014450992734322</v>
       </c>
       <c r="D18">
-        <v>1.059979154063713</v>
+        <v>1.030177427377888</v>
       </c>
       <c r="E18">
-        <v>1.065481944572084</v>
+        <v>1.02691528575986</v>
       </c>
       <c r="F18">
-        <v>1.0746031484394</v>
+        <v>1.032521275050076</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050927446710176</v>
+        <v>1.050032100489838</v>
       </c>
       <c r="J18">
-        <v>1.066274266868013</v>
+        <v>1.040978960042082</v>
       </c>
       <c r="K18">
-        <v>1.063222672103732</v>
+        <v>1.043494825555645</v>
       </c>
       <c r="L18">
-        <v>1.068707568118529</v>
+        <v>1.040285054763469</v>
       </c>
       <c r="M18">
-        <v>1.077799552496662</v>
+        <v>1.045801306563954</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.060424928287102</v>
+        <v>1.014973094566033</v>
       </c>
       <c r="D19">
-        <v>1.060054799370613</v>
+        <v>1.030579896209763</v>
       </c>
       <c r="E19">
-        <v>1.065568629203464</v>
+        <v>1.027362088688409</v>
       </c>
       <c r="F19">
-        <v>1.074697792879599</v>
+        <v>1.033004382434242</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050958699674368</v>
+        <v>1.05023040935008</v>
       </c>
       <c r="J19">
-        <v>1.066344040486406</v>
+        <v>1.041350737012262</v>
       </c>
       <c r="K19">
-        <v>1.06328413206196</v>
+        <v>1.04382903352896</v>
       </c>
       <c r="L19">
-        <v>1.068780116091314</v>
+        <v>1.040662555655254</v>
       </c>
       <c r="M19">
-        <v>1.077880173132099</v>
+        <v>1.046215115414697</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.059993127353212</v>
+        <v>1.012627904240267</v>
       </c>
       <c r="D20">
-        <v>1.059716468552456</v>
+        <v>1.028772443370163</v>
       </c>
       <c r="E20">
-        <v>1.065180954823458</v>
+        <v>1.025355724202641</v>
       </c>
       <c r="F20">
-        <v>1.074274534084269</v>
+        <v>1.030835049073715</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050818821994782</v>
+        <v>1.049338952435455</v>
       </c>
       <c r="J20">
-        <v>1.066031930320374</v>
+        <v>1.039680572736587</v>
       </c>
       <c r="K20">
-        <v>1.063009192471851</v>
+        <v>1.042327552688357</v>
       </c>
       <c r="L20">
-        <v>1.068455617603699</v>
+        <v>1.038966909751539</v>
       </c>
       <c r="M20">
-        <v>1.077519587114633</v>
+        <v>1.044356537421427</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058588847723191</v>
+        <v>1.004816341644893</v>
       </c>
       <c r="D21">
-        <v>1.058616038887781</v>
+        <v>1.022759052482458</v>
       </c>
       <c r="E21">
-        <v>1.063920575144263</v>
+        <v>1.018683816755601</v>
       </c>
       <c r="F21">
-        <v>1.072898705885367</v>
+        <v>1.023622146244192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050362182847925</v>
+        <v>1.046357620057891</v>
       </c>
       <c r="J21">
-        <v>1.065016061887774</v>
+        <v>1.034114064715469</v>
       </c>
       <c r="K21">
-        <v>1.062113993628166</v>
+        <v>1.037321705954325</v>
       </c>
       <c r="L21">
-        <v>1.067399811675049</v>
+        <v>1.033319658305319</v>
       </c>
       <c r="M21">
-        <v>1.076346725367153</v>
+        <v>1.038169396298413</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.057705560216798</v>
+        <v>0.9997517130596413</v>
       </c>
       <c r="D22">
-        <v>1.057923777518498</v>
+        <v>1.018866326011818</v>
       </c>
       <c r="E22">
-        <v>1.063128105822981</v>
+        <v>1.014367188643036</v>
       </c>
       <c r="F22">
-        <v>1.072033832064472</v>
+        <v>1.018956148210857</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050073627880074</v>
+        <v>1.044415770328702</v>
       </c>
       <c r="J22">
-        <v>1.064376441094569</v>
+        <v>1.03050280742236</v>
       </c>
       <c r="K22">
-        <v>1.061550109509574</v>
+        <v>1.034073078762892</v>
       </c>
       <c r="L22">
-        <v>1.066735340122136</v>
+        <v>1.029659302395223</v>
       </c>
       <c r="M22">
-        <v>1.075608860958362</v>
+        <v>1.034161206815678</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.05817384277179</v>
+        <v>1.002451752807068</v>
       </c>
       <c r="D23">
-        <v>1.058290794610076</v>
+        <v>1.020940993835826</v>
       </c>
       <c r="E23">
-        <v>1.063548211136578</v>
+        <v>1.016667563959605</v>
       </c>
       <c r="F23">
-        <v>1.072492303151141</v>
+        <v>1.02144265070584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050226733839835</v>
+        <v>1.045451815639531</v>
       </c>
       <c r="J23">
-        <v>1.06471560242604</v>
+        <v>1.032428210970208</v>
       </c>
       <c r="K23">
-        <v>1.061849133916374</v>
+        <v>1.035805236517817</v>
       </c>
       <c r="L23">
-        <v>1.067087650688796</v>
+        <v>1.031610571878906</v>
       </c>
       <c r="M23">
-        <v>1.076000059108402</v>
+        <v>1.036297703440621</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060016664366464</v>
+        <v>1.012756411156671</v>
       </c>
       <c r="D24">
-        <v>1.05973491110289</v>
+        <v>1.028871459865915</v>
       </c>
       <c r="E24">
-        <v>1.065202085068531</v>
+        <v>1.025465625111577</v>
       </c>
       <c r="F24">
-        <v>1.074297602952558</v>
+        <v>1.030953873126567</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050826453129025</v>
+        <v>1.049387845996752</v>
       </c>
       <c r="J24">
-        <v>1.06604894629009</v>
+        <v>1.039772104455763</v>
       </c>
       <c r="K24">
-        <v>1.063024183122517</v>
+        <v>1.042409845838391</v>
       </c>
       <c r="L24">
-        <v>1.068473307525438</v>
+        <v>1.039059822567347</v>
       </c>
       <c r="M24">
-        <v>1.077539242976066</v>
+        <v>1.044458367860838</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.062153673845778</v>
+        <v>1.024108630614295</v>
       </c>
       <c r="D25">
-        <v>1.061409129120433</v>
+        <v>1.03762940993537</v>
       </c>
       <c r="E25">
-        <v>1.067121289740179</v>
+        <v>1.035192396635835</v>
       </c>
       <c r="F25">
-        <v>1.07639333221923</v>
+        <v>1.041472234112651</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051516117333635</v>
+        <v>1.053685021694649</v>
       </c>
       <c r="J25">
-        <v>1.067592337298529</v>
+        <v>1.047851018718289</v>
       </c>
       <c r="K25">
-        <v>1.064383292923893</v>
+        <v>1.049670369131352</v>
       </c>
       <c r="L25">
-        <v>1.070078532653068</v>
+        <v>1.047267899665993</v>
       </c>
       <c r="M25">
-        <v>1.079323524676657</v>
+        <v>1.053459137336468</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032733665469476</v>
+        <v>1.004832149304925</v>
       </c>
       <c r="D2">
-        <v>1.044296741461363</v>
+        <v>1.029200519138077</v>
       </c>
       <c r="E2">
-        <v>1.042606639713394</v>
+        <v>1.010613360806771</v>
       </c>
       <c r="F2">
-        <v>1.049492843657448</v>
+        <v>1.035545214287217</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056916598473933</v>
+        <v>1.052725469612161</v>
       </c>
       <c r="J2">
-        <v>1.053977532660224</v>
+        <v>1.026869285977356</v>
       </c>
       <c r="K2">
-        <v>1.055171610237183</v>
+        <v>1.040267498509103</v>
       </c>
       <c r="L2">
-        <v>1.053502671382964</v>
+        <v>1.021926788674199</v>
       </c>
       <c r="M2">
-        <v>1.06030318000146</v>
+        <v>1.04653060022455</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045398223069068</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.03954288864408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038772711917509</v>
+        <v>1.008679774674286</v>
       </c>
       <c r="D3">
-        <v>1.048971147393648</v>
+        <v>1.03174796998797</v>
       </c>
       <c r="E3">
-        <v>1.04781048038156</v>
+        <v>1.013643209915414</v>
       </c>
       <c r="F3">
-        <v>1.055124204856774</v>
+        <v>1.038165745949487</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059159071985733</v>
+        <v>1.053570809048403</v>
       </c>
       <c r="J3">
-        <v>1.058259439999236</v>
+        <v>1.028936584839212</v>
       </c>
       <c r="K3">
-        <v>1.059013550412265</v>
+        <v>1.041990126616867</v>
       </c>
       <c r="L3">
-        <v>1.057866090172925</v>
+        <v>1.02410444945587</v>
       </c>
       <c r="M3">
-        <v>1.065097192234719</v>
+        <v>1.048332511520258</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046824304056275</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040758272471071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042584511048642</v>
+        <v>1.011125895485599</v>
       </c>
       <c r="D4">
-        <v>1.051923934344106</v>
+        <v>1.033369755376447</v>
       </c>
       <c r="E4">
-        <v>1.051100498556015</v>
+        <v>1.015575358319844</v>
       </c>
       <c r="F4">
-        <v>1.058685471003282</v>
+        <v>1.03983665805891</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06056485798538</v>
+        <v>1.054095681415142</v>
       </c>
       <c r="J4">
-        <v>1.060958251735707</v>
+        <v>1.030249218908242</v>
       </c>
       <c r="K4">
-        <v>1.061433609693703</v>
+        <v>1.043081451379059</v>
       </c>
       <c r="L4">
-        <v>1.060618954355297</v>
+        <v>1.025489367772877</v>
       </c>
       <c r="M4">
-        <v>1.068123678256539</v>
+        <v>1.049476936347588</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047730031163896</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041530824349801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044165077305062</v>
+        <v>1.012147113318805</v>
       </c>
       <c r="D5">
-        <v>1.053148804156551</v>
+        <v>1.034048975845241</v>
       </c>
       <c r="E5">
-        <v>1.052465944652763</v>
+        <v>1.01638379100689</v>
       </c>
       <c r="F5">
-        <v>1.060163731176159</v>
+        <v>1.040535897299462</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061145410584903</v>
+        <v>1.05431299661114</v>
       </c>
       <c r="J5">
-        <v>1.062076337199203</v>
+        <v>1.030798109798605</v>
       </c>
       <c r="K5">
-        <v>1.062435851853033</v>
+        <v>1.043538372417258</v>
       </c>
       <c r="L5">
-        <v>1.061760072179398</v>
+        <v>1.026068673407889</v>
       </c>
       <c r="M5">
-        <v>1.069378692206459</v>
+        <v>1.049955549697678</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048108817693515</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.041861057369808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044429205177956</v>
+        <v>1.01232162144742</v>
       </c>
       <c r="D6">
-        <v>1.053353518862663</v>
+        <v>1.034167080320889</v>
       </c>
       <c r="E6">
-        <v>1.052694194980617</v>
+        <v>1.016522504347628</v>
       </c>
       <c r="F6">
-        <v>1.060410854004872</v>
+        <v>1.04065608819677</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061242286647177</v>
+        <v>1.054351472763596</v>
       </c>
       <c r="J6">
-        <v>1.062263121207866</v>
+        <v>1.030893470951312</v>
       </c>
       <c r="K6">
-        <v>1.062603261947674</v>
+        <v>1.043619147139445</v>
       </c>
       <c r="L6">
-        <v>1.061950741399664</v>
+        <v>1.026168932742315</v>
       </c>
       <c r="M6">
-        <v>1.069588420312009</v>
+        <v>1.050038705806978</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048174629490446</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041926893883115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042605715437542</v>
+        <v>1.011149311170427</v>
       </c>
       <c r="D7">
-        <v>1.051940364953313</v>
+        <v>1.033390681734494</v>
       </c>
       <c r="E7">
-        <v>1.051118812142791</v>
+        <v>1.01559520347448</v>
       </c>
       <c r="F7">
-        <v>1.058705296714943</v>
+        <v>1.039854374314445</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060572655878864</v>
+        <v>1.054104736533615</v>
       </c>
       <c r="J7">
-        <v>1.060973255555566</v>
+        <v>1.030266065286799</v>
       </c>
       <c r="K7">
-        <v>1.061447060425614</v>
+        <v>1.043099272899189</v>
       </c>
       <c r="L7">
-        <v>1.060634264727457</v>
+        <v>1.025506042894487</v>
       </c>
       <c r="M7">
-        <v>1.068140514891974</v>
+        <v>1.049491610246251</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047741644455769</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041563489060002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034795085708289</v>
+        <v>1.006153755076144</v>
       </c>
       <c r="D8">
-        <v>1.045891809443237</v>
+        <v>1.030081545715284</v>
       </c>
       <c r="E8">
-        <v>1.044381792834614</v>
+        <v>1.011654531338421</v>
       </c>
       <c r="F8">
-        <v>1.051413638821598</v>
+        <v>1.036446301603712</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057684065074229</v>
+        <v>1.053023287609219</v>
       </c>
       <c r="J8">
-        <v>1.055439946754592</v>
+        <v>1.027584943565142</v>
       </c>
       <c r="K8">
-        <v>1.056484058467019</v>
+        <v>1.04086889542817</v>
       </c>
       <c r="L8">
-        <v>1.054992358600924</v>
+        <v>1.022678915276507</v>
       </c>
       <c r="M8">
-        <v>1.061939462795159</v>
+        <v>1.047154218198691</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04589177139306</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039990994553289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020247149993726</v>
+        <v>0.9969871118098717</v>
       </c>
       <c r="D9">
-        <v>1.034648023401202</v>
+        <v>1.024021111194211</v>
       </c>
       <c r="E9">
-        <v>1.031879772733861</v>
+        <v>1.004469951303909</v>
       </c>
       <c r="F9">
-        <v>1.037889578846202</v>
+        <v>1.030231316906336</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052228469891935</v>
+        <v>1.050935352024991</v>
       </c>
       <c r="J9">
-        <v>1.04510464458919</v>
+        <v>1.022646713377719</v>
       </c>
       <c r="K9">
-        <v>1.047202904137002</v>
+        <v>1.036736124018831</v>
       </c>
       <c r="L9">
-        <v>1.044475962732895</v>
+        <v>1.017490920583856</v>
       </c>
       <c r="M9">
-        <v>1.050396443238488</v>
+        <v>1.042852240258882</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042487061595367</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037065682950243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009944029143874</v>
+        <v>0.9906689685839549</v>
       </c>
       <c r="D10">
-        <v>1.026705140090049</v>
+        <v>1.01987886718928</v>
       </c>
       <c r="E10">
-        <v>1.023061489245614</v>
+        <v>0.9995603786924937</v>
       </c>
       <c r="F10">
-        <v>1.02835463109756</v>
+        <v>1.026048961739735</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048316645144429</v>
+        <v>1.04945251217205</v>
       </c>
       <c r="J10">
-        <v>1.037768592628007</v>
+        <v>1.019257754484135</v>
       </c>
       <c r="K10">
-        <v>1.04060840354966</v>
+        <v>1.033898244793499</v>
       </c>
       <c r="L10">
-        <v>1.037026481833407</v>
+        <v>1.013937575176995</v>
       </c>
       <c r="M10">
-        <v>1.042230135062035</v>
+        <v>1.03996330012401</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.040251989762053</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035075934752135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005319933658947</v>
+        <v>0.9882335470479414</v>
       </c>
       <c r="D11">
-        <v>1.02314638470149</v>
+        <v>1.018418706835602</v>
       </c>
       <c r="E11">
-        <v>1.019113424575842</v>
+        <v>0.9977326586660218</v>
       </c>
       <c r="F11">
-        <v>1.024086550102724</v>
+        <v>1.024997517568532</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0465503404629</v>
+        <v>1.049005199351021</v>
       </c>
       <c r="J11">
-        <v>1.034473059728332</v>
+        <v>1.01810415112188</v>
       </c>
       <c r="K11">
-        <v>1.037644608177464</v>
+        <v>1.033001436293857</v>
       </c>
       <c r="L11">
-        <v>1.033683672294281</v>
+        <v>1.012697460769294</v>
       </c>
       <c r="M11">
-        <v>1.038568089035695</v>
+        <v>1.039462927983607</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.04029129985395</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034474713316332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.003576042901901</v>
+        <v>0.9874268603236442</v>
       </c>
       <c r="D12">
-        <v>1.021805293458744</v>
+        <v>1.017976414111177</v>
       </c>
       <c r="E12">
-        <v>1.017626036031858</v>
+        <v>0.9971498656816076</v>
       </c>
       <c r="F12">
-        <v>1.022478711203517</v>
+        <v>1.024867758213064</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045882680188116</v>
+        <v>1.048900786671954</v>
       </c>
       <c r="J12">
-        <v>1.033229825487991</v>
+        <v>1.017773037431406</v>
       </c>
       <c r="K12">
-        <v>1.036526331656885</v>
+        <v>1.032767132182122</v>
       </c>
       <c r="L12">
-        <v>1.032423164557881</v>
+        <v>1.012331874234837</v>
       </c>
       <c r="M12">
-        <v>1.037187564373512</v>
+        <v>1.039533551072113</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040672911005553</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03430905251153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.003951334887774</v>
+        <v>0.9878369630794648</v>
       </c>
       <c r="D13">
-        <v>1.022093853111351</v>
+        <v>1.018307590603322</v>
       </c>
       <c r="E13">
-        <v>1.017946056018964</v>
+        <v>0.9974991156783626</v>
       </c>
       <c r="F13">
-        <v>1.02282464193982</v>
+        <v>1.025463739604763</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046026431236844</v>
+        <v>1.049069498660472</v>
       </c>
       <c r="J13">
-        <v>1.033497390413864</v>
+        <v>1.018070615830406</v>
       </c>
       <c r="K13">
-        <v>1.036767011836238</v>
+        <v>1.033049369135345</v>
       </c>
       <c r="L13">
-        <v>1.032694421520854</v>
+        <v>1.01263019049377</v>
       </c>
       <c r="M13">
-        <v>1.037484632330191</v>
+        <v>1.040076378134105</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.041378278480687</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03450610904096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005176330823392</v>
+        <v>0.9886750565632831</v>
       </c>
       <c r="D14">
-        <v>1.023035929341963</v>
+        <v>1.018889897034509</v>
       </c>
       <c r="E14">
-        <v>1.018990911640352</v>
+        <v>0.9981655152128472</v>
       </c>
       <c r="F14">
-        <v>1.023954113745229</v>
+        <v>1.026208819427912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046495391831532</v>
+        <v>1.049310903034442</v>
       </c>
       <c r="J14">
-        <v>1.034370691447963</v>
+        <v>1.018563014918384</v>
       </c>
       <c r="K14">
-        <v>1.037552532693854</v>
+        <v>1.033480672102626</v>
       </c>
       <c r="L14">
-        <v>1.033579870254895</v>
+        <v>1.01313912475053</v>
       </c>
       <c r="M14">
-        <v>1.038454396369677</v>
+        <v>1.040669185341124</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04201990792133</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034812480341585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005927548650751</v>
+        <v>0.9891503348825618</v>
       </c>
       <c r="D15">
-        <v>1.023613787976209</v>
+        <v>1.019209208648211</v>
       </c>
       <c r="E15">
-        <v>1.019631867309788</v>
+        <v>0.998537033953518</v>
       </c>
       <c r="F15">
-        <v>1.024646990643514</v>
+        <v>1.026564093345097</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046782778220408</v>
+        <v>1.049434518645541</v>
       </c>
       <c r="J15">
-        <v>1.034906187061742</v>
+        <v>1.018827675522214</v>
       </c>
       <c r="K15">
-        <v>1.038034178362212</v>
+        <v>1.033707769379467</v>
       </c>
       <c r="L15">
-        <v>1.034122888870667</v>
+        <v>1.013414511139554</v>
       </c>
       <c r="M15">
-        <v>1.039049170394029</v>
+        <v>1.040932609160344</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.042265593901128</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034978919858264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010247332606506</v>
+        <v>0.9917548972778201</v>
       </c>
       <c r="D16">
-        <v>1.026938701166504</v>
+        <v>1.020913864217156</v>
       </c>
       <c r="E16">
-        <v>1.023320658979701</v>
+        <v>1.000548994472265</v>
       </c>
       <c r="F16">
-        <v>1.028634824556818</v>
+        <v>1.028259381987369</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048432284946491</v>
+        <v>1.050056045422121</v>
       </c>
       <c r="J16">
-        <v>1.037984695498229</v>
+        <v>1.020221660188094</v>
       </c>
       <c r="K16">
-        <v>1.040802725666191</v>
+        <v>1.034879907501698</v>
       </c>
       <c r="L16">
-        <v>1.037245761934764</v>
+        <v>1.014871695102606</v>
       </c>
       <c r="M16">
-        <v>1.042470406373451</v>
+        <v>1.042101249264125</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.043150635863851</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03581083010777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012912195383165</v>
+        <v>0.9933156552414666</v>
       </c>
       <c r="D17">
-        <v>1.02899149778528</v>
+        <v>1.021917544759545</v>
       </c>
       <c r="E17">
-        <v>1.025598860132694</v>
+        <v>1.0017465420797</v>
       </c>
       <c r="F17">
-        <v>1.031097926406697</v>
+        <v>1.029165262588428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049447110916211</v>
+        <v>1.050402908225711</v>
       </c>
       <c r="J17">
-        <v>1.039883062964012</v>
+        <v>1.021033148736004</v>
       </c>
       <c r="K17">
-        <v>1.042509604064261</v>
+        <v>1.035551891870607</v>
       </c>
       <c r="L17">
-        <v>1.039172457675692</v>
+        <v>1.015724017231288</v>
       </c>
       <c r="M17">
-        <v>1.044581815082013</v>
+        <v>1.042680539357958</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.0434797330232</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036288534657994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.014450992734322</v>
+        <v>0.994110887800273</v>
       </c>
       <c r="D18">
-        <v>1.030177427377888</v>
+        <v>1.022387674823233</v>
       </c>
       <c r="E18">
-        <v>1.02691528575986</v>
+        <v>1.002338359490296</v>
       </c>
       <c r="F18">
-        <v>1.032521275050076</v>
+        <v>1.029429102248055</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050032100489838</v>
+        <v>1.050533756572293</v>
       </c>
       <c r="J18">
-        <v>1.040978960042082</v>
+        <v>1.021398239839129</v>
       </c>
       <c r="K18">
-        <v>1.043494825555645</v>
+        <v>1.03583084223227</v>
       </c>
       <c r="L18">
-        <v>1.040285054763469</v>
+        <v>1.01611685150951</v>
       </c>
       <c r="M18">
-        <v>1.045801306563954</v>
+        <v>1.042758476510451</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.043304178487567</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036474125987028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014973094566033</v>
+        <v>0.9942058832029622</v>
       </c>
       <c r="D19">
-        <v>1.030579896209763</v>
+        <v>1.022370068371556</v>
       </c>
       <c r="E19">
-        <v>1.027362088688409</v>
+        <v>1.00237585274484</v>
       </c>
       <c r="F19">
-        <v>1.033004382434242</v>
+        <v>1.029100306130658</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05023040935008</v>
+        <v>1.050468532967937</v>
       </c>
       <c r="J19">
-        <v>1.041350737012262</v>
+        <v>1.021353667665508</v>
       </c>
       <c r="K19">
-        <v>1.04382903352896</v>
+        <v>1.035750987889025</v>
       </c>
       <c r="L19">
-        <v>1.040662555655254</v>
+        <v>1.016089377529326</v>
       </c>
       <c r="M19">
-        <v>1.046215115414697</v>
+        <v>1.042372994400821</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042674683016501</v>
+      </c>
+      <c r="Q19">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R19">
+        <v>1.036424060101454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012627904240267</v>
+        <v>0.9923312644640885</v>
       </c>
       <c r="D20">
-        <v>1.028772443370163</v>
+        <v>1.02098066625473</v>
       </c>
       <c r="E20">
-        <v>1.025355724202641</v>
+        <v>1.000853595785636</v>
       </c>
       <c r="F20">
-        <v>1.030835049073715</v>
+        <v>1.027154477745744</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049338952435455</v>
+        <v>1.049856924144249</v>
       </c>
       <c r="J20">
-        <v>1.039680572736587</v>
+        <v>1.020161037619043</v>
       </c>
       <c r="K20">
-        <v>1.042327552688357</v>
+        <v>1.034664362460701</v>
       </c>
       <c r="L20">
-        <v>1.038966909751539</v>
+        <v>1.014881452328464</v>
       </c>
       <c r="M20">
-        <v>1.044356537421427</v>
+        <v>1.040736081810026</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040853037138557</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035659695777749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004816341644893</v>
+        <v>0.9875136193417626</v>
       </c>
       <c r="D21">
-        <v>1.022759052482458</v>
+        <v>1.017799784569156</v>
       </c>
       <c r="E21">
-        <v>1.018683816755601</v>
+        <v>0.9971116348736054</v>
       </c>
       <c r="F21">
-        <v>1.023622146244192</v>
+        <v>1.023867750932837</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046357620057891</v>
+        <v>1.048676080121213</v>
       </c>
       <c r="J21">
-        <v>1.034114064715469</v>
+        <v>1.01754282902622</v>
       </c>
       <c r="K21">
-        <v>1.037321705954325</v>
+        <v>1.032451603249569</v>
       </c>
       <c r="L21">
-        <v>1.033319658305319</v>
+        <v>1.012147935616541</v>
       </c>
       <c r="M21">
-        <v>1.038169396298413</v>
+        <v>1.038410623903109</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038971821160863</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034098424129402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9997517130596413</v>
+        <v>0.9844371655781708</v>
       </c>
       <c r="D22">
-        <v>1.018866326011818</v>
+        <v>1.015776801105517</v>
       </c>
       <c r="E22">
-        <v>1.014367188643036</v>
+        <v>0.9947321163987406</v>
       </c>
       <c r="F22">
-        <v>1.018956148210857</v>
+        <v>1.021810527930394</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044415770328702</v>
+        <v>1.047915252902917</v>
       </c>
       <c r="J22">
-        <v>1.03050280742236</v>
+        <v>1.015875957205484</v>
       </c>
       <c r="K22">
-        <v>1.034073078762892</v>
+        <v>1.031042064253616</v>
       </c>
       <c r="L22">
-        <v>1.029659302395223</v>
+        <v>1.010408658440446</v>
       </c>
       <c r="M22">
-        <v>1.034161206815678</v>
+        <v>1.036961952277329</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037825291343884</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.033088299036922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002451752807068</v>
+        <v>0.9860651354544435</v>
       </c>
       <c r="D23">
-        <v>1.020940993835826</v>
+        <v>1.016842490198724</v>
       </c>
       <c r="E23">
-        <v>1.016667563959605</v>
+        <v>0.9959890233875639</v>
       </c>
       <c r="F23">
-        <v>1.02144265070584</v>
+        <v>1.022897095360855</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045451815639531</v>
+        <v>1.048315927803709</v>
       </c>
       <c r="J23">
-        <v>1.032428210970208</v>
+        <v>1.016754404900926</v>
       </c>
       <c r="K23">
-        <v>1.035805236517817</v>
+        <v>1.031782257040305</v>
       </c>
       <c r="L23">
-        <v>1.031610571878906</v>
+        <v>1.011325694781851</v>
       </c>
       <c r="M23">
-        <v>1.036297703440621</v>
+        <v>1.03772557016723</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03842964570257</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03360200080117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012756411156671</v>
+        <v>0.992360262705436</v>
       </c>
       <c r="D24">
-        <v>1.028871459865915</v>
+        <v>1.02097949542494</v>
       </c>
       <c r="E24">
-        <v>1.025465625111577</v>
+        <v>1.00086855235599</v>
       </c>
       <c r="F24">
-        <v>1.030953873126567</v>
+        <v>1.027116548720095</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049387845996752</v>
+        <v>1.049845106060345</v>
       </c>
       <c r="J24">
-        <v>1.039772104455763</v>
+        <v>1.020155603168682</v>
       </c>
       <c r="K24">
-        <v>1.042409845838391</v>
+        <v>1.034647939048991</v>
       </c>
       <c r="L24">
-        <v>1.039059822567347</v>
+        <v>1.014880432390801</v>
       </c>
       <c r="M24">
-        <v>1.044458367860838</v>
+        <v>1.040683633027716</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040770757054278</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035620670733405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024108630614295</v>
+        <v>0.9994156624554743</v>
       </c>
       <c r="D25">
-        <v>1.03762940993537</v>
+        <v>1.025632000947573</v>
       </c>
       <c r="E25">
-        <v>1.035192396635835</v>
+        <v>1.006369750860418</v>
       </c>
       <c r="F25">
-        <v>1.041472234112651</v>
+        <v>1.031875129123233</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053685021694649</v>
+        <v>1.051505431597323</v>
       </c>
       <c r="J25">
-        <v>1.047851018718289</v>
+        <v>1.023962707904944</v>
       </c>
       <c r="K25">
-        <v>1.049670369131352</v>
+        <v>1.037845029499231</v>
       </c>
       <c r="L25">
-        <v>1.047267899665993</v>
+        <v>1.018869982898179</v>
       </c>
       <c r="M25">
-        <v>1.053459137336468</v>
+        <v>1.043997985246512</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.04339383887673</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037878313921606</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_62/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004832149304925</v>
+        <v>1.003959757541745</v>
       </c>
       <c r="D2">
-        <v>1.029200519138077</v>
+        <v>1.027979938009346</v>
       </c>
       <c r="E2">
-        <v>1.010613360806771</v>
+        <v>1.009870184698032</v>
       </c>
       <c r="F2">
-        <v>1.035545214287217</v>
+        <v>1.03468232549184</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052725469612161</v>
+        <v>1.052092339801188</v>
       </c>
       <c r="J2">
-        <v>1.026869285977356</v>
+        <v>1.026022674560182</v>
       </c>
       <c r="K2">
-        <v>1.040267498509103</v>
+        <v>1.039062758793775</v>
       </c>
       <c r="L2">
-        <v>1.021926788674199</v>
+        <v>1.021193703695628</v>
       </c>
       <c r="M2">
-        <v>1.04653060022455</v>
+        <v>1.045678734793663</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045398223069068</v>
+        <v>1.044724032927384</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.03954288864408</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038699799441698</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022454112476851</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008679774674286</v>
+        <v>1.007689851793188</v>
       </c>
       <c r="D3">
-        <v>1.03174796998797</v>
+        <v>1.030365924012163</v>
       </c>
       <c r="E3">
-        <v>1.013643209915414</v>
+        <v>1.012795765354614</v>
       </c>
       <c r="F3">
-        <v>1.038165745949487</v>
+        <v>1.037189728184042</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053570809048403</v>
+        <v>1.052853279676951</v>
       </c>
       <c r="J3">
-        <v>1.028936584839212</v>
+        <v>1.027973056471878</v>
       </c>
       <c r="K3">
-        <v>1.041990126616867</v>
+        <v>1.040624468131823</v>
       </c>
       <c r="L3">
-        <v>1.02410444945587</v>
+        <v>1.023267498592287</v>
       </c>
       <c r="M3">
-        <v>1.048332511520258</v>
+        <v>1.047367884840101</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046824304056275</v>
+        <v>1.046060872941749</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040758272471071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039801122656426</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02276961160565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011125895485599</v>
+        <v>1.010062008696324</v>
       </c>
       <c r="D4">
-        <v>1.033369755376447</v>
+        <v>1.031885560777163</v>
       </c>
       <c r="E4">
-        <v>1.015575358319844</v>
+        <v>1.014662240729049</v>
       </c>
       <c r="F4">
-        <v>1.03983665805891</v>
+        <v>1.038789165042806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054095681415142</v>
+        <v>1.053324652647929</v>
       </c>
       <c r="J4">
-        <v>1.030249218908242</v>
+        <v>1.029211782969027</v>
       </c>
       <c r="K4">
-        <v>1.043081451379059</v>
+        <v>1.041613803006276</v>
       </c>
       <c r="L4">
-        <v>1.025489367772877</v>
+        <v>1.024586868480542</v>
       </c>
       <c r="M4">
-        <v>1.049476936347588</v>
+        <v>1.04844093725401</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047730031163896</v>
+        <v>1.046910115005495</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041530824349801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040501641380757</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022967067246057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012147113318805</v>
+        <v>1.011052540598809</v>
       </c>
       <c r="D5">
-        <v>1.034048975845241</v>
+        <v>1.032522336211255</v>
       </c>
       <c r="E5">
-        <v>1.01638379100689</v>
+        <v>1.015443403816973</v>
       </c>
       <c r="F5">
-        <v>1.040535897299462</v>
+        <v>1.03945871993716</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05431299661114</v>
+        <v>1.053519712485547</v>
       </c>
       <c r="J5">
-        <v>1.030798109798605</v>
+        <v>1.029729939244373</v>
       </c>
       <c r="K5">
-        <v>1.043538372417258</v>
+        <v>1.042028302747151</v>
       </c>
       <c r="L5">
-        <v>1.026068673407889</v>
+        <v>1.025138927670566</v>
       </c>
       <c r="M5">
-        <v>1.049955549697678</v>
+        <v>1.048889879786296</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048108817693515</v>
+        <v>1.047265419710332</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.041861057369808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040802591499669</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023049644701456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01232162144742</v>
+        <v>1.011221840362167</v>
       </c>
       <c r="D6">
-        <v>1.034167080320889</v>
+        <v>1.032633296536219</v>
       </c>
       <c r="E6">
-        <v>1.016522504347628</v>
+        <v>1.015577471999041</v>
       </c>
       <c r="F6">
-        <v>1.04065608819677</v>
+        <v>1.039573908735105</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054351472763596</v>
+        <v>1.053554441186384</v>
       </c>
       <c r="J6">
-        <v>1.030893470951312</v>
+        <v>1.029820081488171</v>
       </c>
       <c r="K6">
-        <v>1.043619147139445</v>
+        <v>1.042101935207666</v>
       </c>
       <c r="L6">
-        <v>1.026168932742315</v>
+        <v>1.025234544972869</v>
       </c>
       <c r="M6">
-        <v>1.050038705806978</v>
+        <v>1.048968034723404</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048174629490446</v>
+        <v>1.047327273526846</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041926893883115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040864248429411</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023064809652962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011149311170427</v>
+        <v>1.010084774916359</v>
       </c>
       <c r="D7">
-        <v>1.033390681734494</v>
+        <v>1.031905780054721</v>
       </c>
       <c r="E7">
-        <v>1.01559520347448</v>
+        <v>1.014681463195885</v>
       </c>
       <c r="F7">
-        <v>1.039854374314445</v>
+        <v>1.038806366516764</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054104736533615</v>
+        <v>1.053333336945366</v>
       </c>
       <c r="J7">
-        <v>1.030266065286799</v>
+        <v>1.029227984739424</v>
       </c>
       <c r="K7">
-        <v>1.043099272899189</v>
+        <v>1.041630919001552</v>
       </c>
       <c r="L7">
-        <v>1.025506042894487</v>
+        <v>1.024602924092777</v>
       </c>
       <c r="M7">
-        <v>1.049491610246251</v>
+        <v>1.048455097720474</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047741644455769</v>
+        <v>1.046921321966672</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041563489060002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040535810377684</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022971905114787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006153755076144</v>
+        <v>1.005240838756768</v>
       </c>
       <c r="D8">
-        <v>1.030081545715284</v>
+        <v>1.028805691504965</v>
       </c>
       <c r="E8">
-        <v>1.011654531338421</v>
+        <v>1.010875350885846</v>
       </c>
       <c r="F8">
-        <v>1.036446301603712</v>
+        <v>1.035544633828678</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053023287609219</v>
+        <v>1.052361287556743</v>
       </c>
       <c r="J8">
-        <v>1.027584943565142</v>
+        <v>1.026698100051788</v>
       </c>
       <c r="K8">
-        <v>1.04086889542817</v>
+        <v>1.039609111607041</v>
       </c>
       <c r="L8">
-        <v>1.022678915276507</v>
+        <v>1.021909996491144</v>
       </c>
       <c r="M8">
-        <v>1.047154218198691</v>
+        <v>1.046263729433579</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04589177139306</v>
+        <v>1.045187014123303</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039990994553289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.039111257059243</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022566730339166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9969871118098717</v>
+        <v>0.996358954065707</v>
       </c>
       <c r="D9">
-        <v>1.024021111194211</v>
+        <v>1.023132734370246</v>
       </c>
       <c r="E9">
-        <v>1.004469951303909</v>
+        <v>1.00394297200747</v>
       </c>
       <c r="F9">
-        <v>1.030231316906336</v>
+        <v>1.029601777893136</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050935352024991</v>
+        <v>1.050475281882477</v>
       </c>
       <c r="J9">
-        <v>1.022646713377719</v>
+        <v>1.022040945478166</v>
       </c>
       <c r="K9">
-        <v>1.036736124018831</v>
+        <v>1.035861325913026</v>
       </c>
       <c r="L9">
-        <v>1.017490920583856</v>
+        <v>1.016972399532861</v>
       </c>
       <c r="M9">
-        <v>1.042852240258882</v>
+        <v>1.04223217342757</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042487061595367</v>
+        <v>1.041996321454673</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037065682950243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.036457879184377</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021794427997614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9906689685839549</v>
+        <v>0.9902387648462527</v>
       </c>
       <c r="D10">
-        <v>1.01987886718928</v>
+        <v>1.019257917600533</v>
       </c>
       <c r="E10">
-        <v>0.9995603786924937</v>
+        <v>0.9992076155418291</v>
       </c>
       <c r="F10">
-        <v>1.026048961739735</v>
+        <v>1.025607811413318</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04945251217205</v>
+        <v>1.049131255729605</v>
       </c>
       <c r="J10">
-        <v>1.019257754484135</v>
+        <v>1.018845089911627</v>
       </c>
       <c r="K10">
-        <v>1.033898244793499</v>
+        <v>1.03328795725051</v>
       </c>
       <c r="L10">
-        <v>1.013937575176995</v>
+        <v>1.013591191488174</v>
       </c>
       <c r="M10">
-        <v>1.03996330012401</v>
+        <v>1.039529605776082</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.040251989762053</v>
+        <v>1.039908770878701</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035075934752135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034656844610345</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021256968658303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9882335470479414</v>
+        <v>0.9878539733169145</v>
       </c>
       <c r="D11">
-        <v>1.018418706835602</v>
+        <v>1.01787951600366</v>
       </c>
       <c r="E11">
-        <v>0.9977326586660218</v>
+        <v>0.9974203765199515</v>
       </c>
       <c r="F11">
-        <v>1.024997517568532</v>
+        <v>1.024613389460096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049005199351021</v>
+        <v>1.048726423187787</v>
       </c>
       <c r="J11">
-        <v>1.01810415112188</v>
+        <v>1.017740918696181</v>
       </c>
       <c r="K11">
-        <v>1.033001436293857</v>
+        <v>1.032471948169323</v>
       </c>
       <c r="L11">
-        <v>1.012697460769294</v>
+        <v>1.012391105280533</v>
       </c>
       <c r="M11">
-        <v>1.039462927983607</v>
+        <v>1.03908559625945</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.04029129985395</v>
+        <v>1.039992835026105</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034474713316332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034115981634515</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02112153384312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9874268603236442</v>
+        <v>0.9870551528849676</v>
       </c>
       <c r="D12">
-        <v>1.017976414111177</v>
+        <v>1.017457282824139</v>
       </c>
       <c r="E12">
-        <v>0.9971498656816076</v>
+        <v>0.9968414373848239</v>
       </c>
       <c r="F12">
-        <v>1.024867758213064</v>
+        <v>1.024497531277916</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048900786671954</v>
+        <v>1.048632493034915</v>
       </c>
       <c r="J12">
-        <v>1.017773037431406</v>
+        <v>1.017417648633506</v>
       </c>
       <c r="K12">
-        <v>1.032767132182122</v>
+        <v>1.032257500880199</v>
       </c>
       <c r="L12">
-        <v>1.012331874234837</v>
+        <v>1.012029401686678</v>
       </c>
       <c r="M12">
-        <v>1.039533551072113</v>
+        <v>1.039169980039281</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040672911005553</v>
+        <v>1.040385427708317</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03430905251153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033964363306216</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021100266077433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9878369630794648</v>
+        <v>0.9874398345991333</v>
       </c>
       <c r="D13">
-        <v>1.018307590603322</v>
+        <v>1.017761385521546</v>
       </c>
       <c r="E13">
-        <v>0.9974991156783626</v>
+        <v>0.9971658780533258</v>
       </c>
       <c r="F13">
-        <v>1.025463739604763</v>
+        <v>1.025074490596858</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049069498660472</v>
+        <v>1.0487872843607</v>
       </c>
       <c r="J13">
-        <v>1.018070615830406</v>
+        <v>1.017690838052634</v>
       </c>
       <c r="K13">
-        <v>1.033049369135345</v>
+        <v>1.032513117972977</v>
       </c>
       <c r="L13">
-        <v>1.01263019049377</v>
+        <v>1.01230336036569</v>
       </c>
       <c r="M13">
-        <v>1.040076378134105</v>
+        <v>1.039694093295771</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.041378278480687</v>
+        <v>1.041076073516899</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03450610904096</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034142351672777</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021173099206236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9886750565632831</v>
+        <v>0.9882457378630821</v>
       </c>
       <c r="D14">
-        <v>1.018889897034509</v>
+        <v>1.018303908467171</v>
       </c>
       <c r="E14">
-        <v>0.9981655152128472</v>
+        <v>0.9978025823185505</v>
       </c>
       <c r="F14">
-        <v>1.026208819427912</v>
+        <v>1.025791786833425</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049310903034442</v>
+        <v>1.0490081543412</v>
       </c>
       <c r="J14">
-        <v>1.018563014918384</v>
+        <v>1.01815218337409</v>
       </c>
       <c r="K14">
-        <v>1.033480672102626</v>
+        <v>1.03290523007322</v>
       </c>
       <c r="L14">
-        <v>1.01313912475053</v>
+        <v>1.012783081476405</v>
       </c>
       <c r="M14">
-        <v>1.040669185341124</v>
+        <v>1.040259518627928</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04201990792133</v>
+        <v>1.041696100569139</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034812480341585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034421147326553</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.02126653824465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9891503348825618</v>
+        <v>0.9887052062057784</v>
       </c>
       <c r="D15">
-        <v>1.019209208648211</v>
+        <v>1.018602494797841</v>
       </c>
       <c r="E15">
-        <v>0.998537033953518</v>
+        <v>0.998159956797376</v>
       </c>
       <c r="F15">
-        <v>1.026564093345097</v>
+        <v>1.026132560059509</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049434518645541</v>
+        <v>1.049121051991132</v>
       </c>
       <c r="J15">
-        <v>1.018827675522214</v>
+        <v>1.018401545506874</v>
       </c>
       <c r="K15">
-        <v>1.033707769379467</v>
+        <v>1.033111891984815</v>
       </c>
       <c r="L15">
-        <v>1.013414511139554</v>
+        <v>1.013044536156401</v>
       </c>
       <c r="M15">
-        <v>1.040932609160344</v>
+        <v>1.040508639297093</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.042265593901128</v>
+        <v>1.041930489904244</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034978919858264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034573708662856</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02131260395869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9917548972778201</v>
+        <v>0.9912299382722959</v>
       </c>
       <c r="D16">
-        <v>1.020913864217156</v>
+        <v>1.020197659105223</v>
       </c>
       <c r="E16">
-        <v>1.000548994472265</v>
+        <v>1.000102522756691</v>
       </c>
       <c r="F16">
-        <v>1.028259381987369</v>
+        <v>1.027750893429325</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050056045422121</v>
+        <v>1.049685835306291</v>
       </c>
       <c r="J16">
-        <v>1.020221660188094</v>
+        <v>1.019717971400135</v>
       </c>
       <c r="K16">
-        <v>1.034879907501698</v>
+        <v>1.03417593344275</v>
       </c>
       <c r="L16">
-        <v>1.014871695102606</v>
+        <v>1.014433254067456</v>
       </c>
       <c r="M16">
-        <v>1.042101249264125</v>
+        <v>1.041601282989758</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.043150635863851</v>
+        <v>1.042755453355378</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03581083010777</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035329486368046</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021535979761563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9933156552414666</v>
+        <v>0.9927461534796773</v>
       </c>
       <c r="D17">
-        <v>1.021917544759545</v>
+        <v>1.021138147913404</v>
       </c>
       <c r="E17">
-        <v>1.0017465420797</v>
+        <v>1.001262136564059</v>
       </c>
       <c r="F17">
-        <v>1.029165262588428</v>
+        <v>1.028612210038399</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050402908225711</v>
+        <v>1.049999877746333</v>
       </c>
       <c r="J17">
-        <v>1.021033148736004</v>
+        <v>1.02048596886148</v>
       </c>
       <c r="K17">
-        <v>1.035551891870607</v>
+        <v>1.034785429084995</v>
       </c>
       <c r="L17">
-        <v>1.015724017231288</v>
+        <v>1.015248072085965</v>
       </c>
       <c r="M17">
-        <v>1.042680539357958</v>
+        <v>1.042136496738685</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.0434797330232</v>
+        <v>1.043049669027013</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036288534657994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035763254465728</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.0216574860014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.994110887800273</v>
+        <v>0.9935253230360328</v>
       </c>
       <c r="D18">
-        <v>1.022387674823233</v>
+        <v>1.02158132540023</v>
       </c>
       <c r="E18">
-        <v>1.002338359490296</v>
+        <v>1.001841785975102</v>
       </c>
       <c r="F18">
-        <v>1.029429102248055</v>
+        <v>1.028856886228054</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050533756572293</v>
+        <v>1.050116651387962</v>
       </c>
       <c r="J18">
-        <v>1.021398239839129</v>
+        <v>1.020835187333934</v>
       </c>
       <c r="K18">
-        <v>1.03583084223227</v>
+        <v>1.035037652489938</v>
       </c>
       <c r="L18">
-        <v>1.01611685150951</v>
+        <v>1.015628803346145</v>
       </c>
       <c r="M18">
-        <v>1.042758476510451</v>
+        <v>1.042195433225636</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.043304178487567</v>
+        <v>1.042859002067717</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036474125987028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035928808844366</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021695243896629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9942058832029622</v>
+        <v>0.9936325050450736</v>
       </c>
       <c r="D19">
-        <v>1.022370068371556</v>
+        <v>1.021572380501207</v>
       </c>
       <c r="E19">
-        <v>1.00237585274484</v>
+        <v>1.001892566768183</v>
       </c>
       <c r="F19">
-        <v>1.029100306130658</v>
+        <v>1.028534100296024</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050468532967937</v>
+        <v>1.050055799494257</v>
       </c>
       <c r="J19">
-        <v>1.021353667665508</v>
+        <v>1.020802197819456</v>
       </c>
       <c r="K19">
-        <v>1.035750987889025</v>
+        <v>1.034966249321205</v>
       </c>
       <c r="L19">
-        <v>1.016089377529326</v>
+        <v>1.015614343316647</v>
       </c>
       <c r="M19">
-        <v>1.042372994400821</v>
+        <v>1.041815823963842</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042674683016501</v>
+        <v>1.042234006687058</v>
       </c>
       <c r="Q19">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036424060101454</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035885344295636</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021657286241371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9923312644640885</v>
+        <v>0.9918481371883134</v>
       </c>
       <c r="D20">
-        <v>1.02098066625473</v>
+        <v>1.020289364289406</v>
       </c>
       <c r="E20">
-        <v>1.000853595785636</v>
+        <v>1.000454113877987</v>
       </c>
       <c r="F20">
-        <v>1.027154477745744</v>
+        <v>1.026663621684482</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049856924144249</v>
+        <v>1.049499190725721</v>
       </c>
       <c r="J20">
-        <v>1.020161037619043</v>
+        <v>1.019696956926534</v>
       </c>
       <c r="K20">
-        <v>1.034664362460701</v>
+        <v>1.033984591190096</v>
       </c>
       <c r="L20">
-        <v>1.014881452328464</v>
+        <v>1.014488982937962</v>
       </c>
       <c r="M20">
-        <v>1.040736081810026</v>
+        <v>1.040253284919421</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040853037138557</v>
+        <v>1.040470954708536</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035659695777749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035195589755878</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021406941357673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9875136193417626</v>
+        <v>0.9871887742626362</v>
       </c>
       <c r="D21">
-        <v>1.017799784569156</v>
+        <v>1.01731802322954</v>
       </c>
       <c r="E21">
-        <v>0.9971116348736054</v>
+        <v>0.9968518763981081</v>
       </c>
       <c r="F21">
-        <v>1.023867750932837</v>
+        <v>1.023524930287872</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048676080121213</v>
+        <v>1.0484268767466</v>
       </c>
       <c r="J21">
-        <v>1.01754282902622</v>
+        <v>1.017232067556502</v>
       </c>
       <c r="K21">
-        <v>1.032451603249569</v>
+        <v>1.031978563994802</v>
       </c>
       <c r="L21">
-        <v>1.012147935616541</v>
+        <v>1.011893137410133</v>
       </c>
       <c r="M21">
-        <v>1.038410623903109</v>
+        <v>1.038073913645447</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038971821160863</v>
+        <v>1.038705336951586</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034098424129402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033780823850001</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020975668166331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9844371655781708</v>
+        <v>0.9842132603100218</v>
       </c>
       <c r="D22">
-        <v>1.015776801105517</v>
+        <v>1.015428097369571</v>
       </c>
       <c r="E22">
-        <v>0.9947321163987406</v>
+        <v>0.994561104603136</v>
       </c>
       <c r="F22">
-        <v>1.021810527930394</v>
+        <v>1.021561902151255</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047915252902917</v>
+        <v>1.047734849658978</v>
       </c>
       <c r="J22">
-        <v>1.015875957205484</v>
+        <v>1.015662334472853</v>
       </c>
       <c r="K22">
-        <v>1.031042064253616</v>
+        <v>1.030699993625478</v>
       </c>
       <c r="L22">
-        <v>1.010408658440446</v>
+        <v>1.010241082587193</v>
       </c>
       <c r="M22">
-        <v>1.036961952277329</v>
+        <v>1.036717982659164</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037825291343884</v>
+        <v>1.037632205002671</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.033088299036922</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032861999061092</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020699256649981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9860651354544435</v>
+        <v>0.985787826263303</v>
       </c>
       <c r="D23">
-        <v>1.016842490198724</v>
+        <v>1.01642318284955</v>
       </c>
       <c r="E23">
-        <v>0.9959890233875639</v>
+        <v>0.9957711550965435</v>
       </c>
       <c r="F23">
-        <v>1.022897095360855</v>
+        <v>1.022598507480324</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048315927803709</v>
+        <v>1.048099030811231</v>
       </c>
       <c r="J23">
-        <v>1.016754404900926</v>
+        <v>1.016489450760597</v>
       </c>
       <c r="K23">
-        <v>1.031782257040305</v>
+        <v>1.031370721159927</v>
       </c>
       <c r="L23">
-        <v>1.011325694781851</v>
+        <v>1.011112088324944</v>
       </c>
       <c r="M23">
-        <v>1.03772557016723</v>
+        <v>1.037432430531849</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03842964570257</v>
+        <v>1.038197644629081</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03360200080117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033325636254869</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020843339938373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.992360262705436</v>
+        <v>0.9918790465206841</v>
       </c>
       <c r="D24">
-        <v>1.02097949542494</v>
+        <v>1.020289023744708</v>
       </c>
       <c r="E24">
-        <v>1.00086855235599</v>
+        <v>1.000471205393791</v>
       </c>
       <c r="F24">
-        <v>1.027116548720095</v>
+        <v>1.026626393275436</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049845106060345</v>
+        <v>1.04948779031033</v>
       </c>
       <c r="J24">
-        <v>1.020155603168682</v>
+        <v>1.019693329902216</v>
       </c>
       <c r="K24">
-        <v>1.034647939048991</v>
+        <v>1.033968969475607</v>
       </c>
       <c r="L24">
-        <v>1.014880432390801</v>
+        <v>1.014490051187431</v>
       </c>
       <c r="M24">
-        <v>1.040683633027716</v>
+        <v>1.040201515711096</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040770757054278</v>
+        <v>1.04038919356552</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035620670733405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035154450606446</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021398134866168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9994156624554743</v>
+        <v>0.9987111257624854</v>
       </c>
       <c r="D25">
-        <v>1.025632000947573</v>
+        <v>1.024640734366007</v>
       </c>
       <c r="E25">
-        <v>1.006369750860418</v>
+        <v>1.005775118764823</v>
       </c>
       <c r="F25">
-        <v>1.031875129123233</v>
+        <v>1.031173169334618</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051505431597323</v>
+        <v>1.050991840186013</v>
       </c>
       <c r="J25">
-        <v>1.023962707904944</v>
+        <v>1.023281943657328</v>
       </c>
       <c r="K25">
-        <v>1.037845029499231</v>
+        <v>1.036868208481099</v>
       </c>
       <c r="L25">
-        <v>1.018869982898179</v>
+        <v>1.018284440116766</v>
       </c>
       <c r="M25">
-        <v>1.043997985246512</v>
+        <v>1.043306095198755</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.04339383887673</v>
+        <v>1.042846256274735</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037878313921606</v>
+        <v>1.037201183737606</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022006233841258</v>
       </c>
     </row>
   </sheetData>
